--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10076000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11476000</v>
+      </c>
+      <c r="F8" s="3">
         <v>11085000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11156000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11006000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9486000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>10469000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10103000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9770000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9854000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9686000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9634000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9496000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9350000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1425000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1362000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1364000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1336000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1317000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1296000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1273000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1239000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1200000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1176000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1169000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1157000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8675000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10094000</v>
+      </c>
+      <c r="F10" s="3">
         <v>9660000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9794000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9642000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8150000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>9152000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8807000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8497000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8615000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8486000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8458000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8327000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8193000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,96 +992,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F14" s="3">
         <v>16000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>74000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>33000</v>
       </c>
-      <c r="G14" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J14" s="3">
         <v>16000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>25000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>163000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>39000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>88000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>70000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>80000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="E15" s="3">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="F15" s="3">
         <v>32000</v>
       </c>
       <c r="G15" s="3">
-        <v>105000</v>
+        <v>32000</v>
       </c>
       <c r="H15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J15" s="3">
         <v>24000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>23000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>22000</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9415000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9245000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9925000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10078000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9386000</v>
       </c>
-      <c r="G17" s="3">
-        <v>9850000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>10196000</v>
+      </c>
+      <c r="J17" s="3">
         <v>9291000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9206000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8507000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8697000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8715000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8783000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8484000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8092000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2231000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1160000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1078000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1620000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-364000</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="J18" s="3">
         <v>1178000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>897000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1263000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1157000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>971000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>851000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1012000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1258000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,8 +1233,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1213,52 +1279,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>816000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1319000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1238000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1777000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-229000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-575000</v>
+      </c>
+      <c r="J21" s="3">
         <v>1306000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1023000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1385000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1282000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1091000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>970000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1131000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1355000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2231000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1160000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1078000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1620000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-364000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="J23" s="3">
         <v>1178000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>897000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1263000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1157000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>971000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>851000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1012000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1258000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>458000</v>
+      </c>
+      <c r="F24" s="3">
         <v>229000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>227000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>328000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-97000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>199000</v>
-      </c>
       <c r="I24" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K24" s="3">
         <v>180000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>257000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>414000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>305000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>272000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>317000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>418000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="F26" s="3">
         <v>931000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>851000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1292000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-267000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>979000</v>
-      </c>
       <c r="I26" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>948000</v>
+      </c>
+      <c r="K26" s="3">
         <v>717000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1006000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>743000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>666000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>579000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>695000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>840000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1707000</v>
+      </c>
+      <c r="F27" s="3">
         <v>889000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>821000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1261000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-310000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>942000</v>
-      </c>
       <c r="I27" s="3">
+        <v>-583000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>911000</v>
+      </c>
+      <c r="K27" s="3">
         <v>678000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>977000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>714000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>637000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>550000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>666000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>811000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1579,26 +1699,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>31000</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>506000</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>506000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,8 +1829,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1741,52 +1879,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1707000</v>
+      </c>
+      <c r="F33" s="3">
         <v>889000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>821000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1261000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-312000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>973000</v>
-      </c>
       <c r="I33" s="3">
+        <v>-585000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>942000</v>
+      </c>
+      <c r="K33" s="3">
         <v>678000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>977000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1220000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>637000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>550000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>666000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>811000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1707000</v>
+      </c>
+      <c r="F35" s="3">
         <v>889000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>821000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1261000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-312000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>973000</v>
-      </c>
       <c r="I35" s="3">
+        <v>-585000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>942000</v>
+      </c>
+      <c r="K35" s="3">
         <v>678000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>977000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1220000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>637000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>550000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>666000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>811000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="F41" s="3">
         <v>587000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>599000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>551000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>499000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>460000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>489000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>450000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>617000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>690000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>482000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>442000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>436000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,52 +2224,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6401000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6472000</v>
+      </c>
+      <c r="F43" s="3">
         <v>6558000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6380000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6201000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>6154000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6196000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5953000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5856000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5786000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5922000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5693000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5649000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5597000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,81 +2424,93 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>84783000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>88221000</v>
+      </c>
+      <c r="F47" s="3">
         <v>89158000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>86345000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>84018000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>81136000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>83855000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>83140000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>83195000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>82677000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>82680000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>81203000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>81050000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>81707000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1154000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1535000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1519000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1521000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1045000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1032000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1040000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1060000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1072000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1067000</v>
       </c>
       <c r="M48" s="3">
         <v>1072000</v>
@@ -2305,57 +2519,69 @@
         <v>1067000</v>
       </c>
       <c r="O48" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1065000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2544000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2545000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="G49" s="3">
         <v>2547000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2547000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2189000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2189000</v>
       </c>
       <c r="J49" s="3">
         <v>2189000</v>
       </c>
       <c r="K49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="M49" s="3">
         <v>2181000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2309000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2309000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2295000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1219000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1219000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,8 +2674,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2486,8 +2724,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>116107000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>119950000</v>
+      </c>
+      <c r="F54" s="3">
         <v>121073000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>118374000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>115834000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>112249000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>114490000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>113369000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>113289000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>112422000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>113632000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>110865000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>110243000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>108610000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2914,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,52 +2964,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46703000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>48503000</v>
+      </c>
+      <c r="F59" s="3">
         <v>48555000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>48232000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>48055000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>47670000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>48313000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>47936000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>47972000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48614000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>48542000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>48216000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>48129000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>48185000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6633000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6631000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6630000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6628000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6453000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6451000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6450000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6448000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6847000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6350000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6349000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6348000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6346000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6347000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1154000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1079000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>997000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>817000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>425000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>660000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>723000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>725000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>782000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1249000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1104000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>833000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>487000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91934000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>93952000</v>
+      </c>
+      <c r="F66" s="3">
         <v>94933000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>93898000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>92416000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>90937000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>90857000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>90247000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>90012000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>89871000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>91513000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>89364000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>89085000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>88037000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,37 +3484,43 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2248000</v>
+      </c>
+      <c r="F70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1930000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1930000</v>
       </c>
       <c r="G70" s="3">
         <v>1930000</v>
       </c>
       <c r="H70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="I70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="J70" s="3">
         <v>2303000</v>
       </c>
       <c r="K70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="L70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="M70" s="3">
         <v>1746000</v>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>1746000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48326000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>48074000</v>
+      </c>
+      <c r="F72" s="3">
         <v>46527000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>45803000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>45148000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>45708000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>46178000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>45508000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>45031000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>43162000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>42125000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>41622000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>41208000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>40678000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22203000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23750000</v>
+      </c>
+      <c r="F76" s="3">
         <v>23088000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>22546000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21488000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19382000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>21330000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>20819000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20974000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20805000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20373000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>19755000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>19412000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18827000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1707000</v>
+      </c>
+      <c r="F81" s="3">
         <v>889000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>821000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1261000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-312000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>973000</v>
-      </c>
       <c r="I81" s="3">
+        <v>-585000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>942000</v>
+      </c>
+      <c r="K81" s="3">
         <v>678000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>977000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1220000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>637000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>550000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>666000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>811000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F83" s="3">
         <v>159000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>160000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>157000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>135000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>128000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>126000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>122000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>125000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>120000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>119000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>119000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>97000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1833000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1348000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>714000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1357000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1728000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1464000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>626000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1100000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1866000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>491000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>857000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1251000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-120000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-93000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-80000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-82000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-67000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-66000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-62000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-83000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-70000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-72000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-74000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-123000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>428000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-879000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-263000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>737000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-60000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-140000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>337000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-280000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-166000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-166000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-158000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-159000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-160000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-163000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-132000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-134000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-134000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-135000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-122000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-122000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1095000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1911000</v>
+      </c>
+      <c r="F100" s="3">
         <v>248000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-421000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-399000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-612000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>458000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-531000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-788000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-571000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>664000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4899,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>48000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>52000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>39000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-29000</v>
       </c>
       <c r="I102" s="3">
         <v>39000</v>
       </c>
       <c r="J102" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>39000</v>
+      </c>
+      <c r="L102" s="3">
         <v>-167000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-73000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>208000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>40000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>47000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11197000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10076000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11476000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11085000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11156000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11006000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9486000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10469000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10103000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9770000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9854000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9686000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9634000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9496000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9350000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1401000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1382000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1425000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1362000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1364000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1336000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1317000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1296000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1273000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1239000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1176000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1169000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1157000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9848000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8675000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10094000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9660000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9794000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9642000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8150000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9152000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8807000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8497000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8615000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8486000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8458000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8327000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8193000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,69 +1014,75 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E14" s="3">
         <v>214000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>66000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>74000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>33000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>163000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>88000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>70000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>80000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E15" s="3">
         <v>28000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>32000</v>
       </c>
       <c r="G15" s="3">
         <v>32000</v>
@@ -1069,19 +1091,19 @@
         <v>32000</v>
       </c>
       <c r="I15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J15" s="3">
         <v>36000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22000</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1089,8 +1111,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9651000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9415000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9245000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9925000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10078000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9386000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10196000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9291000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9206000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8507000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8697000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8715000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8783000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8484000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8092000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E18" s="3">
         <v>661000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2231000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1160000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1078000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1620000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-710000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1178000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>897000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1263000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1157000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>971000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>851000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1012000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1258000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,8 +1267,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,58 +1318,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1709000</v>
+      </c>
+      <c r="E21" s="3">
         <v>816000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2402000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1319000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1238000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1777000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-575000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1306000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1023000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1385000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1282000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1091000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>970000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1131000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1355000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E23" s="3">
         <v>661000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2231000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1160000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1078000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1620000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-710000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1178000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>897000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1263000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1157000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>971000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>851000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1012000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1258000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E24" s="3">
         <v>112000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>458000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>229000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>227000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>328000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-170000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>230000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>180000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>257000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>414000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>305000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>272000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>317000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>418000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="E26" s="3">
         <v>549000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1773000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>931000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>851000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1292000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-540000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>948000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>717000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1006000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>743000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>666000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>579000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>695000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>840000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="E27" s="3">
         <v>513000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1707000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>889000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>821000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1261000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-583000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>911000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>678000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>977000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>714000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>637000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>550000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>666000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>811000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1705,23 +1765,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>31000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>506000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,8 +1901,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1885,58 +1954,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="E33" s="3">
         <v>513000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1707000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>889000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>821000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1261000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-585000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>942000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>678000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>977000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1220000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>637000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>550000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>666000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>811000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="E35" s="3">
         <v>513000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1707000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>889000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>821000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1261000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-585000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>942000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>678000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>977000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1220000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>637000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>550000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>666000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>811000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>338000</v>
+        <v>547000</v>
       </c>
       <c r="E41" s="3">
         <v>338000</v>
       </c>
       <c r="F41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="G41" s="3">
         <v>587000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>599000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>551000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>499000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>460000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>489000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>450000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>617000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>690000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>482000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>442000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>436000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,58 +2319,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6367000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6401000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6472000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6558000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6380000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6201000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6154000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6196000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5953000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5856000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5786000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5922000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5693000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5649000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5597000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,108 +2531,117 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>89637000</v>
+      </c>
+      <c r="E47" s="3">
         <v>84783000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>88221000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>89158000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>86345000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>84018000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>81136000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>83855000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>83140000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83195000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82677000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82680000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81203000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81050000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81707000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1154000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1628000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1535000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1519000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1521000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1045000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1032000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1040000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1060000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1072000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1067000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1072000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1067000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1065000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2539,22 +2649,22 @@
         <v>2544000</v>
       </c>
       <c r="E49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="F49" s="3">
         <v>2545000</v>
       </c>
       <c r="G49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="H49" s="3">
         <v>2547000</v>
       </c>
       <c r="I49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="J49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2189000</v>
       </c>
       <c r="K49" s="3">
         <v>2189000</v>
@@ -2563,25 +2673,28 @@
         <v>2189000</v>
       </c>
       <c r="M49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="N49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2309000</v>
       </c>
       <c r="O49" s="3">
         <v>2309000</v>
       </c>
       <c r="P49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1219000</v>
       </c>
       <c r="R49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,8 +2796,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2730,8 +2849,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121266000</v>
+      </c>
+      <c r="E54" s="3">
         <v>116107000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119950000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121073000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118374000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115834000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112249000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>114490000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113369000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113289000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112422000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113632000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110865000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110243000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108610000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,8 +3050,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,58 +3103,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48299000</v>
+      </c>
+      <c r="E59" s="3">
         <v>46703000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48503000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48555000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48232000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48055000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47670000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48313000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47936000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47972000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48614000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48542000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48216000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48129000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48185000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6634000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6633000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6631000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6630000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6628000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6453000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6451000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6450000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6448000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6847000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6350000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6349000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6348000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6346000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6347000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E62" s="3">
         <v>331000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1154000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1079000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>997000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>817000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>425000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>660000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>723000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>725000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>782000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1249000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1104000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>833000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>487000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94280000</v>
+      </c>
+      <c r="E66" s="3">
         <v>91934000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93952000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94933000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93898000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>92416000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90937000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90857000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90247000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90012000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89871000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91513000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89364000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89085000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>88037000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3499,13 +3666,13 @@
         <v>1970000</v>
       </c>
       <c r="E70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="F70" s="3">
         <v>2248000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1930000</v>
       </c>
       <c r="H70" s="3">
         <v>1930000</v>
@@ -3514,7 +3681,7 @@
         <v>1930000</v>
       </c>
       <c r="J70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="K70" s="3">
         <v>2303000</v>
@@ -3523,7 +3690,7 @@
         <v>2303000</v>
       </c>
       <c r="M70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="N70" s="3">
         <v>1746000</v>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49380000</v>
+      </c>
+      <c r="E72" s="3">
         <v>48326000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48074000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>46527000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45803000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45148000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45708000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46178000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45508000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45031000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43162000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42125000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41622000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41208000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40678000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25016000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22203000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23750000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23088000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22546000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21488000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19382000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21330000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20819000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20974000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20805000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20373000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19755000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19412000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18827000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="E81" s="3">
         <v>513000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1707000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>889000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>821000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1261000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-585000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>942000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>678000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>977000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1220000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>637000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>550000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>666000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>811000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E83" s="3">
         <v>155000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>171000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>159000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>160000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>157000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>135000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>128000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>126000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>122000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>125000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>120000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>119000</v>
       </c>
       <c r="P83" s="3">
         <v>119000</v>
       </c>
       <c r="Q83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="R83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1849000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1027000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1234000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1833000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1348000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>714000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1357000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1728000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1464000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>626000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1100000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1866000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>491000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>857000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1251000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-140000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-120000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-93000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-80000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-82000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-83000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-70000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-72000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-123000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1026000</v>
+      </c>
+      <c r="E94" s="3">
         <v>68000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>428000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-879000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-263000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>737000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-140000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>337000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-280000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-159000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-166000</v>
       </c>
       <c r="G96" s="3">
         <v>-166000</v>
       </c>
       <c r="H96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-158000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-159000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-160000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-163000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-134000</v>
       </c>
       <c r="N96" s="3">
         <v>-134000</v>
       </c>
       <c r="O96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-122000</v>
       </c>
       <c r="Q96" s="3">
         <v>-122000</v>
       </c>
       <c r="R96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-614000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>248000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-421000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-399000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-612000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>458000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-531000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-788000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-571000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>664000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>209000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-249000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-29000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-167000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-73000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>208000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>47000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11500000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11197000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10076000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11476000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11085000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11156000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11006000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9486000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10469000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10103000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9770000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9854000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9686000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9634000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9496000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9350000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1492000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1349000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1401000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1382000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1425000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1362000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1364000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1336000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1317000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1296000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1273000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1239000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1176000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1169000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1157000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10008000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9848000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8675000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10094000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9660000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9794000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9642000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8150000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9152000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8807000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8497000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8615000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8486000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8458000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8327000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8193000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,75 +1033,81 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E14" s="3">
         <v>751000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>214000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>66000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>74000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>163000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>88000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>70000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>80000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E15" s="3">
         <v>29000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>32000</v>
       </c>
       <c r="H15" s="3">
         <v>32000</v>
@@ -1094,19 +1116,19 @@
         <v>32000</v>
       </c>
       <c r="J15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K15" s="3">
         <v>36000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22000</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1114,8 +1136,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10058000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9651000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9415000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9245000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9925000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10078000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9386000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10196000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9291000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9206000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8507000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8697000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8715000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8783000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8484000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8092000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1546000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>661000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2231000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1160000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1078000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1620000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-710000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1178000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>897000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1263000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1157000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>971000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>851000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1012000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1258000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,8 +1300,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,61 +1354,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1624000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1709000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>816000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2402000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1319000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1238000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1777000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-575000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1306000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1023000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1385000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1282000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1091000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>970000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1131000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1355000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1546000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>661000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2231000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1160000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1078000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1620000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-710000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1178000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>897000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1263000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1157000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>971000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>851000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1012000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1258000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E24" s="3">
         <v>296000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>112000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>458000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>229000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>227000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>328000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-170000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>230000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>180000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>257000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>414000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>305000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>272000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>317000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>418000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1153000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1250000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>549000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1773000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>931000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>851000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1292000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-540000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>948000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>717000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1006000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>743000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>666000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>579000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>695000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>840000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1224000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>513000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1707000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>889000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>821000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1261000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-583000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>911000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>678000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>977000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>714000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>637000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>550000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>666000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>811000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,23 +1828,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>31000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>506000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,8 +1970,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1957,61 +2026,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1224000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>513000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1707000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>889000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>821000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1261000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-585000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>942000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>678000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>977000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1220000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>637000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>550000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>666000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>811000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1224000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>513000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1707000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>889000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>821000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1261000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-585000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>942000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>678000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>977000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1220000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>637000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>550000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>666000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>811000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E41" s="3">
         <v>547000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>338000</v>
       </c>
       <c r="F41" s="3">
         <v>338000</v>
       </c>
       <c r="G41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="H41" s="3">
         <v>587000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>599000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>551000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>499000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>460000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>489000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>450000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>617000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>690000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>482000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>442000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>436000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,61 +2411,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6609000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6367000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6401000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6472000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6558000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6380000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6201000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6154000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6196000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5953000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5856000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5786000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5922000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5693000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5649000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5597000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,114 +2635,123 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>91197000</v>
+      </c>
+      <c r="E47" s="3">
         <v>89637000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>84783000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>88221000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>89158000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>86345000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>84018000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>81136000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>83855000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83140000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83195000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82677000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82680000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81203000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81050000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81707000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1152000</v>
+        <v>1076000</v>
       </c>
       <c r="E48" s="3">
-        <v>1154000</v>
+        <v>1100000</v>
       </c>
       <c r="F48" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1628000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1535000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1519000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1521000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1045000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1032000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1040000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1060000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1072000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1067000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1067000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1065000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2652,22 +2762,22 @@
         <v>2544000</v>
       </c>
       <c r="F49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="G49" s="3">
         <v>2545000</v>
       </c>
       <c r="H49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="I49" s="3">
         <v>2547000</v>
       </c>
       <c r="J49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2189000</v>
       </c>
       <c r="L49" s="3">
         <v>2189000</v>
@@ -2676,25 +2786,28 @@
         <v>2189000</v>
       </c>
       <c r="N49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="O49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2309000</v>
       </c>
       <c r="P49" s="3">
         <v>2309000</v>
       </c>
       <c r="Q49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="R49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1219000</v>
       </c>
       <c r="S49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,8 +2915,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2852,8 +2971,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122750000</v>
+      </c>
+      <c r="E54" s="3">
         <v>121266000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>116107000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>119950000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121073000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118374000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115834000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112249000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114490000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113369000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113289000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112422000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113632000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110865000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>110243000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108610000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3183,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,61 +3239,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48299000</v>
+        <v>49140000</v>
       </c>
       <c r="E59" s="3">
-        <v>46703000</v>
+        <v>48221000</v>
       </c>
       <c r="F59" s="3">
+        <v>46664000</v>
+      </c>
+      <c r="G59" s="3">
         <v>48503000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48555000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48232000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48055000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47670000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48313000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47936000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47972000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48614000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48542000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48216000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48129000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48185000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6635000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6634000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6633000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6631000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6630000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6628000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6453000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6451000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6450000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6448000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6847000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6350000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6349000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6348000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6346000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6347000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E62" s="3">
         <v>842000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>331000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1154000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1079000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>997000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>817000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>425000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>660000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>723000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>725000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>782000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1249000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1104000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>833000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>487000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95487000</v>
+      </c>
+      <c r="E66" s="3">
         <v>94280000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91934000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93952000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94933000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93898000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>92416000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90937000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90857000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90247000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90012000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89871000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91513000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89364000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89085000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>88037000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3669,13 +3836,13 @@
         <v>1970000</v>
       </c>
       <c r="F70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="G70" s="3">
         <v>2248000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1930000</v>
       </c>
       <c r="I70" s="3">
         <v>1930000</v>
@@ -3684,7 +3851,7 @@
         <v>1930000</v>
       </c>
       <c r="K70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="L70" s="3">
         <v>2303000</v>
@@ -3693,7 +3860,7 @@
         <v>2303000</v>
       </c>
       <c r="N70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="O70" s="3">
         <v>1746000</v>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50336000</v>
+      </c>
+      <c r="E72" s="3">
         <v>49380000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48326000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48074000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>46527000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45803000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45148000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45708000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46178000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45508000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45031000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43162000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42125000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41622000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41208000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40678000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25293000</v>
+      </c>
+      <c r="E76" s="3">
         <v>25016000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22203000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23750000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23088000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22546000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21488000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19382000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21330000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20819000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20974000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20805000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20373000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19755000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19412000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18827000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1224000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>513000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1707000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>889000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>821000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1261000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-585000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>942000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>678000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>977000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1220000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>637000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>550000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>666000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>811000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E83" s="3">
         <v>163000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>155000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>171000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>159000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>160000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>157000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>135000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>128000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>126000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>122000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>125000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>120000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>119000</v>
       </c>
       <c r="Q83" s="3">
         <v>119000</v>
       </c>
       <c r="R83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="S83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1849000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1027000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1234000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1833000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1348000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>714000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1357000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1728000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1464000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>626000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1100000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1866000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>491000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>857000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1251000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-101000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-140000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-120000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-93000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-80000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-82000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-70000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-74000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-123000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-285000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>68000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>428000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-879000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-263000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>737000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-140000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>337000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-280000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-172000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-159000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-166000</v>
       </c>
       <c r="H96" s="3">
         <v>-166000</v>
       </c>
       <c r="I96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-158000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-159000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-160000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-163000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-134000</v>
       </c>
       <c r="O96" s="3">
         <v>-134000</v>
       </c>
       <c r="P96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-122000</v>
       </c>
       <c r="R96" s="3">
         <v>-122000</v>
       </c>
       <c r="S96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5292,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1188000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-614000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>248000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-421000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-399000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-612000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>458000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-531000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-788000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-571000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>664000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,57 +5404,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E102" s="3">
         <v>209000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-249000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>48000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-167000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-73000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>208000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>40000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>47000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12018000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11500000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11197000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10076000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11476000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11085000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11156000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11006000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9486000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10469000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10103000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9770000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9854000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9686000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9634000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9496000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9350000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1492000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1349000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1401000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1382000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1425000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1362000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1364000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1336000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1317000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1296000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1273000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1239000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1200000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1176000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1169000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1157000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10630000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10008000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9848000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8675000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10094000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9660000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9794000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9642000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8150000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9152000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8807000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8497000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8615000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8486000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8458000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8327000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8193000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,81 +1052,87 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E14" s="3">
         <v>199000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>751000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>214000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>66000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>74000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>163000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>39000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>88000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>70000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>80000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E15" s="3">
         <v>31000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>29000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>32000</v>
       </c>
       <c r="I15" s="3">
         <v>32000</v>
@@ -1119,19 +1141,19 @@
         <v>32000</v>
       </c>
       <c r="K15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="L15" s="3">
         <v>36000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22000</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1161,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8708000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10058000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9651000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9415000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9245000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9925000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10078000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9386000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10196000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9291000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9206000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8507000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8697000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8715000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8783000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8484000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8092000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3310000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1442000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1546000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>661000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2231000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1160000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1078000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1620000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-710000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1178000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>897000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1263000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1157000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>971000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>851000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1012000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1258000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,8 +1333,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,64 +1390,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3496000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1624000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1709000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>816000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2402000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1319000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1238000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1777000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-575000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1306000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1023000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1385000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1282000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1091000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>970000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1131000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1355000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3310000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1442000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1546000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>661000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2231000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1160000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1078000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1620000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-710000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1178000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>897000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1263000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1157000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>971000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>851000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1012000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1258000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E24" s="3">
         <v>289000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>296000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>112000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>458000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>229000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>227000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>328000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-170000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>230000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>180000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>257000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>414000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>305000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>272000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>317000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>418000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1153000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1250000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>549000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1773000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>931000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>851000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1292000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-540000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>948000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>717000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1006000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>743000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>666000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>579000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>695000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>840000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2598000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1126000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1224000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>513000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1707000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>889000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>821000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1261000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-583000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>911000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>678000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>977000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>714000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>637000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>550000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>666000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>811000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,23 +1891,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>31000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>506000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,8 +2039,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2029,64 +2098,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2598000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1126000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1224000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>513000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1707000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>889000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>821000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1261000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-585000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>942000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>678000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>977000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1220000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>637000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>550000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>666000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>811000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2598000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1126000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1224000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>513000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1707000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>889000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>821000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1261000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-585000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>942000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>678000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>977000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1220000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>637000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>550000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>666000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>811000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E41" s="3">
         <v>370000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>547000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>338000</v>
       </c>
       <c r="G41" s="3">
         <v>338000</v>
       </c>
       <c r="H41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="I41" s="3">
         <v>587000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>599000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>551000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>499000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>460000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>489000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>450000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>617000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>690000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>482000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>442000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>436000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,64 +2503,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6479000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6609000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6367000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6401000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6472000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6558000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6380000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6201000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6154000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6196000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5953000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5856000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5786000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5922000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5693000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5649000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5597000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,120 +2739,129 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94237000</v>
+      </c>
+      <c r="E47" s="3">
         <v>91197000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>89637000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>84783000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>88221000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>89158000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>86345000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>84018000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>81136000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83855000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83140000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>83195000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82677000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82680000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81203000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81050000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81707000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1076000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1123000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1628000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1535000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1519000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1521000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1045000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1032000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1040000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1060000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1072000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1067000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1072000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1067000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1065000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2765,22 +2875,22 @@
         <v>2544000</v>
       </c>
       <c r="G49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="H49" s="3">
         <v>2545000</v>
       </c>
       <c r="I49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="J49" s="3">
         <v>2547000</v>
       </c>
       <c r="K49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="L49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2189000</v>
       </c>
       <c r="M49" s="3">
         <v>2189000</v>
@@ -2789,25 +2899,28 @@
         <v>2189000</v>
       </c>
       <c r="O49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="P49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2309000</v>
       </c>
       <c r="Q49" s="3">
         <v>2309000</v>
       </c>
       <c r="R49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="S49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1219000</v>
       </c>
       <c r="T49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,8 +3034,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2974,8 +3093,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125987000</v>
+      </c>
+      <c r="E54" s="3">
         <v>122750000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121266000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>116107000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>119950000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121073000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118374000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>115834000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112249000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114490000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113369000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113289000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112422000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113632000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>110865000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>110243000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108610000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3259,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,8 +3316,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,64 +3375,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49274000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49140000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48221000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46664000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48503000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48555000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48232000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48055000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47670000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48313000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47936000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47972000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48614000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48542000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48216000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48129000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48185000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7825000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6635000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6634000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6633000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6631000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6630000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6628000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6453000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6451000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6450000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6448000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6847000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6350000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6349000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6348000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6346000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6347000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E62" s="3">
         <v>905000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>842000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>331000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1154000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1079000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>997000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>817000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>425000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>660000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>723000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>725000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>782000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1249000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1104000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>833000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>487000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95770000</v>
+      </c>
+      <c r="E66" s="3">
         <v>95487000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94280000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91934000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93952000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94933000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93898000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>92416000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90937000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90857000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90247000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90012000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89871000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91513000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89364000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89085000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>88037000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3839,13 +4006,13 @@
         <v>1970000</v>
       </c>
       <c r="G70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="H70" s="3">
         <v>2248000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1930000</v>
       </c>
       <c r="J70" s="3">
         <v>1930000</v>
@@ -3854,7 +4021,7 @@
         <v>1930000</v>
       </c>
       <c r="L70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="M70" s="3">
         <v>2303000</v>
@@ -3863,7 +4030,7 @@
         <v>2303000</v>
       </c>
       <c r="O70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="P70" s="3">
         <v>1746000</v>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52767000</v>
+      </c>
+      <c r="E72" s="3">
         <v>50336000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49380000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48326000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48074000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46527000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45803000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45148000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45708000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46178000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45508000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45031000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43162000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42125000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41622000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41208000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>40678000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28247000</v>
+      </c>
+      <c r="E76" s="3">
         <v>25293000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25016000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22203000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23750000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23088000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22546000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21488000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19382000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21330000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20819000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20974000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20805000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20373000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19755000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19412000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18827000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2598000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1126000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1224000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>513000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1707000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>889000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>821000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1261000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-585000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>942000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>678000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>977000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1220000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>637000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>550000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>666000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>811000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E83" s="3">
         <v>182000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>163000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>155000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>171000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>159000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>160000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>157000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>135000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>128000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>126000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>122000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>125000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>120000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>119000</v>
       </c>
       <c r="R83" s="3">
         <v>119000</v>
       </c>
       <c r="S83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="T83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1296000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1849000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1027000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1234000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1833000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1348000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>714000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1357000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1728000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1464000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>626000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1866000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>491000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>857000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1251000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-101000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-140000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-120000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-93000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-80000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-83000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-72000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-74000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-123000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2198000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-285000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>68000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>428000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-879000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-263000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>737000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-140000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>337000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-280000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-169000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-172000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-159000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-166000</v>
       </c>
       <c r="I96" s="3">
         <v>-166000</v>
       </c>
       <c r="J96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-158000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-159000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-160000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-163000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-134000</v>
       </c>
       <c r="P96" s="3">
         <v>-134000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-122000</v>
       </c>
       <c r="S96" s="3">
         <v>-122000</v>
       </c>
       <c r="T96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,64 +5537,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>886000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-614000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>248000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-421000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-399000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-612000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>458000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-531000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-788000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-571000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>664000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5407,60 +5655,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-177000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>209000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-249000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>52000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-167000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-73000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>208000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>40000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>47000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12451000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12018000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11500000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11197000</v>
       </c>
-      <c r="G8" s="3">
-        <v>10076000</v>
-      </c>
       <c r="H8" s="3">
+        <v>9866000</v>
+      </c>
+      <c r="I8" s="3">
         <v>11476000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11085000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11156000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11006000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9486000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10469000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10103000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9770000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9854000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9686000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9634000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9496000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9350000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1523000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1388000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1492000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1349000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1401000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1382000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1425000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1362000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1364000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1336000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1317000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1296000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1273000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1239000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1200000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1176000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1169000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1157000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10928000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10630000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10008000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9848000</v>
       </c>
-      <c r="G10" s="3">
-        <v>8675000</v>
-      </c>
       <c r="H10" s="3">
+        <v>8501000</v>
+      </c>
+      <c r="I10" s="3">
         <v>10094000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9660000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9794000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9642000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8150000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9152000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8807000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8497000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8615000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8486000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8458000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8327000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8193000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,87 +1071,93 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E14" s="3">
         <v>39000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>199000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>751000</v>
       </c>
-      <c r="G14" s="3">
-        <v>214000</v>
-      </c>
       <c r="H14" s="3">
+        <v>213000</v>
+      </c>
+      <c r="I14" s="3">
         <v>66000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>74000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>163000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>39000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>88000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>70000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>80000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E15" s="3">
         <v>30000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>31000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>29000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>28000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>30000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>32000</v>
       </c>
       <c r="J15" s="3">
         <v>32000</v>
@@ -1144,19 +1166,19 @@
         <v>32000</v>
       </c>
       <c r="L15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="M15" s="3">
         <v>36000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22000</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1164,8 +1186,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9419000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8708000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10058000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9651000</v>
       </c>
-      <c r="G17" s="3">
-        <v>9415000</v>
-      </c>
       <c r="H17" s="3">
+        <v>8835000</v>
+      </c>
+      <c r="I17" s="3">
         <v>9245000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9925000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10078000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9386000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10196000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9291000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9206000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8507000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8697000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8715000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8783000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8484000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8092000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3032000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3310000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1442000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1546000</v>
       </c>
-      <c r="G18" s="3">
-        <v>661000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2231000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1160000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1078000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1620000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-710000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1178000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>897000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1263000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1157000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>971000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>851000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1012000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1258000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,8 +1366,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,67 +1426,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3292000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3496000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1624000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1709000</v>
       </c>
-      <c r="G21" s="3">
-        <v>816000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1186000</v>
+      </c>
+      <c r="I21" s="3">
         <v>2402000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1319000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1238000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1777000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-575000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1306000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1023000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1385000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1282000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1091000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>970000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1131000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1355000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3032000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3310000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1442000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1546000</v>
       </c>
-      <c r="G23" s="3">
-        <v>661000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="I23" s="3">
         <v>2231000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1160000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1078000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1620000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-710000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1178000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>897000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1263000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1157000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>971000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>851000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1012000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1258000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E24" s="3">
         <v>686000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>289000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>296000</v>
       </c>
-      <c r="G24" s="3">
-        <v>112000</v>
-      </c>
       <c r="H24" s="3">
+        <v>194000</v>
+      </c>
+      <c r="I24" s="3">
         <v>458000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>229000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>227000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>328000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-170000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>230000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>180000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>257000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>414000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>305000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>272000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>317000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>418000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2624000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1153000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1250000</v>
       </c>
-      <c r="G26" s="3">
-        <v>549000</v>
-      </c>
       <c r="H26" s="3">
+        <v>837000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1773000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>931000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>851000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1292000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-540000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>948000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>717000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1006000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>743000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>666000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>579000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>695000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>840000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2385000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2598000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1126000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1224000</v>
       </c>
-      <c r="G27" s="3">
-        <v>513000</v>
-      </c>
       <c r="H27" s="3">
+        <v>801000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1707000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>889000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>821000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1261000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-583000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>911000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>678000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>977000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>714000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>637000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>550000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>666000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>811000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,13 +1922,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-3793000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1882,8 +1942,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>-288000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1894,23 +1954,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>31000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>506000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,8 +2108,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2101,67 +2170,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1408000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2598000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1126000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1224000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>513000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1707000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>889000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>821000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1261000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-585000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>942000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>678000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>977000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>637000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>550000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>666000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>811000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1408000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2598000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1126000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1224000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>513000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1707000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>889000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>821000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1261000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-585000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>942000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>678000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>977000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>637000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>550000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>666000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>811000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E41" s="3">
         <v>377000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>370000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>547000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>338000</v>
       </c>
       <c r="H41" s="3">
         <v>338000</v>
       </c>
       <c r="I41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="J41" s="3">
         <v>587000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>599000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>551000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>499000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>460000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>489000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>450000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>617000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>690000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>482000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>442000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>436000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,67 +2595,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7921000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6479000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6609000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6367000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6401000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6472000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6558000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6380000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6201000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6154000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6196000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5953000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5856000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5786000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5922000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5693000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5649000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5597000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,131 +2843,140 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>60076000</v>
+      </c>
+      <c r="E47" s="3">
         <v>94237000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>91197000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>89637000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>84783000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>88221000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>89158000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>86345000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84018000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81136000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83855000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>83140000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>83195000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82677000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82680000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81203000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81050000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81707000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1057000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1076000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1123000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1628000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1535000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1519000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1521000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1045000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1032000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1040000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1060000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1067000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1072000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1067000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1065000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2544000</v>
+        <v>3350000</v>
       </c>
       <c r="E49" s="3">
         <v>2544000</v>
@@ -2878,22 +2988,22 @@
         <v>2544000</v>
       </c>
       <c r="H49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="I49" s="3">
         <v>2545000</v>
       </c>
       <c r="J49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="K49" s="3">
         <v>2547000</v>
       </c>
       <c r="L49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="M49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2189000</v>
       </c>
       <c r="N49" s="3">
         <v>2189000</v>
@@ -2902,25 +3012,28 @@
         <v>2189000</v>
       </c>
       <c r="P49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2309000</v>
       </c>
       <c r="R49" s="3">
         <v>2309000</v>
       </c>
       <c r="S49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="T49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1219000</v>
       </c>
       <c r="U49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,31 +3153,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>36829000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3096,8 +3215,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>129811000</v>
+      </c>
+      <c r="E54" s="3">
         <v>125987000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122750000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121266000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>116107000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>119950000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121073000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118374000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115834000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112249000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114490000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113369000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113289000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112422000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113632000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>110865000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110243000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>108610000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3319,8 +3449,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,67 +3511,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20274000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49274000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49140000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48221000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46664000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48503000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48555000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48232000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48055000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47670000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48313000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47936000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47972000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48614000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48542000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48216000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48129000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48185000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7825000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6635000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6634000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6633000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6631000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6630000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6628000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6453000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6451000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6450000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6448000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6847000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6350000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6349000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6348000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6346000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6347000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33876000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1355000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>905000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>842000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>331000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1154000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1079000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>997000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>817000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>425000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>660000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>723000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>725000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>782000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1249000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1104000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>833000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>487000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102992000</v>
+      </c>
+      <c r="E66" s="3">
         <v>95770000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>95487000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94280000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91934000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93952000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>94933000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93898000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92416000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90937000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90857000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90247000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90012000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89871000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91513000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89364000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89085000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>88037000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,13 +4155,16 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="E70" s="3">
         <v>1970000</v>
@@ -4009,13 +4176,13 @@
         <v>1970000</v>
       </c>
       <c r="H70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="I70" s="3">
         <v>2248000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1930000</v>
       </c>
       <c r="K70" s="3">
         <v>1930000</v>
@@ -4024,7 +4191,7 @@
         <v>1930000</v>
       </c>
       <c r="M70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="N70" s="3">
         <v>2303000</v>
@@ -4033,7 +4200,7 @@
         <v>2303000</v>
       </c>
       <c r="P70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="Q70" s="3">
         <v>1746000</v>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51107000</v>
+      </c>
+      <c r="E72" s="3">
         <v>52767000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50336000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49380000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48326000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48074000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46527000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45803000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45148000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45708000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46178000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45508000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45031000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43162000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42125000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41622000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41208000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>40678000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24649000</v>
+      </c>
+      <c r="E76" s="3">
         <v>28247000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25293000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25016000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22203000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23750000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23088000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22546000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21488000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19382000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21330000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20819000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20974000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20805000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20373000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19755000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19412000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18827000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1408000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2598000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1126000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1224000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>513000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1707000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>889000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>821000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1261000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-585000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>942000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>678000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>977000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>637000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>550000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>666000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>811000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E83" s="3">
         <v>186000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>182000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>163000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>155000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>171000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>159000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>160000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>135000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>126000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>122000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>125000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>120000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>119000</v>
       </c>
       <c r="S83" s="3">
         <v>119000</v>
       </c>
       <c r="T83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="U83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1319000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1296000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1849000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1027000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1234000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1833000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1348000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>714000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1357000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1728000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1464000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>626000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1866000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>491000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>857000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1251000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-69000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-101000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-140000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-120000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-93000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-82000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-70000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-72000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-74000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-123000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-285000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>68000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>428000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-879000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-263000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>737000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-60000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-140000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>337000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-280000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-168000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-169000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-172000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-159000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-166000</v>
       </c>
       <c r="J96" s="3">
         <v>-166000</v>
       </c>
       <c r="K96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-158000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-159000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-160000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-163000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-134000</v>
       </c>
       <c r="Q96" s="3">
         <v>-134000</v>
       </c>
       <c r="R96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-122000</v>
       </c>
       <c r="T96" s="3">
         <v>-122000</v>
       </c>
       <c r="U96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1480000</v>
+      </c>
+      <c r="E100" s="3">
         <v>886000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-614000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>248000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-421000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-399000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-612000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>458000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-531000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-788000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-571000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>664000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-177000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>209000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-249000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>52000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-29000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-167000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>208000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>40000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>47000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12646000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12451000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12018000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11500000</v>
       </c>
-      <c r="G8" s="3">
-        <v>11197000</v>
-      </c>
       <c r="H8" s="3">
+        <v>10403000</v>
+      </c>
+      <c r="I8" s="3">
         <v>9866000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11476000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11085000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11156000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11006000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9486000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10469000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10103000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9770000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9854000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9686000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9634000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9496000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9350000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1523000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1388000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1492000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1349000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1365000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1382000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1425000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1362000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1364000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1336000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1317000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1296000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1273000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1239000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1176000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1169000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1157000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11101000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10928000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10630000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10008000</v>
       </c>
-      <c r="G10" s="3">
-        <v>9848000</v>
-      </c>
       <c r="H10" s="3">
+        <v>9059000</v>
+      </c>
+      <c r="I10" s="3">
         <v>8501000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10094000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9660000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9794000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9642000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8150000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9152000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8807000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8497000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8615000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8486000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8458000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8327000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8193000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,93 +1090,99 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="3">
         <v>73000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>199000</v>
       </c>
-      <c r="G14" s="3">
-        <v>751000</v>
-      </c>
       <c r="H14" s="3">
+        <v>750000</v>
+      </c>
+      <c r="I14" s="3">
         <v>213000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>66000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>74000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>163000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>39000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>88000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>70000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>80000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E15" s="3">
         <v>53000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>31000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>29000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>28000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>32000</v>
       </c>
       <c r="K15" s="3">
         <v>32000</v>
@@ -1169,19 +1191,19 @@
         <v>32000</v>
       </c>
       <c r="M15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="N15" s="3">
         <v>36000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22000</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1189,8 +1211,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10849000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9419000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8708000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10058000</v>
       </c>
-      <c r="G17" s="3">
-        <v>9651000</v>
-      </c>
       <c r="H17" s="3">
+        <v>9024000</v>
+      </c>
+      <c r="I17" s="3">
         <v>8835000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9245000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9925000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10078000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9386000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10196000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9291000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9206000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8507000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8697000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8715000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8783000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8484000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8092000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3032000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3310000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1442000</v>
       </c>
-      <c r="G18" s="3">
-        <v>1546000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1031000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2231000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1160000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1078000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1620000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-710000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1178000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>897000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1263000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1157000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>971000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>851000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1012000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1258000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,8 +1399,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1429,70 +1462,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2108000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3292000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3496000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1624000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1709000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1186000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2402000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1319000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1238000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1777000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-575000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1306000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1023000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1385000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1282000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1091000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>970000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1131000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1355000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3032000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3310000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1442000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1546000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1031000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2231000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1160000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1078000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1620000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-710000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1178000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>897000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1263000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1157000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>971000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>851000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1012000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1258000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E24" s="3">
         <v>626000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>686000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>289000</v>
       </c>
-      <c r="G24" s="3">
-        <v>296000</v>
-      </c>
       <c r="H24" s="3">
+        <v>273000</v>
+      </c>
+      <c r="I24" s="3">
         <v>194000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>458000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>229000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>227000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>328000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-170000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>230000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>180000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>257000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>414000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>305000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>272000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>317000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>418000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2406000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2624000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1153000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1250000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="I26" s="3">
         <v>837000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1773000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>931000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>851000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1292000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-540000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>948000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>717000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>743000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>666000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>579000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>695000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>840000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2385000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2598000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1126000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1224000</v>
-      </c>
       <c r="H27" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="I27" s="3">
         <v>801000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1707000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>889000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>821000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1261000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-583000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>911000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>678000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>977000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>714000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>637000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>550000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>666000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>811000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,16 +1982,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3793000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1943,10 +2003,10 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>144000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1957,23 +2017,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>31000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>506000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,8 +2177,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2173,70 +2242,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2598000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1126000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1224000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>513000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1707000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>889000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>821000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1261000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-585000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>942000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>678000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>977000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1220000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>637000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>550000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>666000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>811000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2598000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1126000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1224000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>513000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1707000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>889000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>821000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1261000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-585000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>942000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>678000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>977000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1220000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>637000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>550000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>666000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>811000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E41" s="3">
         <v>709000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>377000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>370000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>547000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>338000</v>
       </c>
       <c r="I41" s="3">
         <v>338000</v>
       </c>
       <c r="J41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="K41" s="3">
         <v>587000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>599000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>551000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>499000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>460000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>489000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>450000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>617000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>690000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>482000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>442000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>436000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,70 +2687,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8146000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7921000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6479000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6609000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6367000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6401000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6472000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6558000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6380000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6201000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6154000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6196000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5953000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5856000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5786000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5922000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5693000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5649000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5597000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,140 +2947,149 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>62570000</v>
+      </c>
+      <c r="E47" s="3">
         <v>60076000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>94237000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>91197000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>89637000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>84783000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>88221000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>89158000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>86345000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>84018000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81136000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>83855000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>83140000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>83195000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82677000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82680000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81203000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81050000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81707000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1002000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1057000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1076000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1123000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1628000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1535000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1519000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1521000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1045000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1032000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1040000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1072000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1067000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1072000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1067000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1065000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3349000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2544000</v>
       </c>
       <c r="F49" s="3">
         <v>2544000</v>
@@ -2991,22 +3101,22 @@
         <v>2544000</v>
       </c>
       <c r="I49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="J49" s="3">
         <v>2545000</v>
       </c>
       <c r="K49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="L49" s="3">
         <v>2547000</v>
       </c>
       <c r="M49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="N49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2189000</v>
       </c>
       <c r="O49" s="3">
         <v>2189000</v>
@@ -3015,25 +3125,28 @@
         <v>2189000</v>
       </c>
       <c r="Q49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="R49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2309000</v>
       </c>
       <c r="S49" s="3">
         <v>2309000</v>
       </c>
       <c r="T49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="U49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1219000</v>
       </c>
       <c r="V49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,16 +3272,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36969000</v>
+      </c>
+      <c r="E52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -3182,8 +3301,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3218,8 +3337,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>132643000</v>
+      </c>
+      <c r="E54" s="3">
         <v>129811000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125987000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122750000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121266000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>116107000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>119950000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121073000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118374000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115834000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112249000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114490000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113369000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113289000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112422000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113632000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110865000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>110243000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>108610000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3519,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,8 +3582,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,70 +3647,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20853000</v>
+      </c>
+      <c r="E59" s="3">
         <v>20274000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49274000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49140000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48221000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46664000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48503000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48555000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48232000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48055000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47670000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48313000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47936000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47972000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48614000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48542000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48216000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48129000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48185000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,8 +3777,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3647,123 +3789,129 @@
         <v>7996000</v>
       </c>
       <c r="E61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="F61" s="3">
         <v>7825000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6635000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6634000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6633000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6631000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6630000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6628000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6453000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6451000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6450000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6448000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6847000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6350000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6349000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6348000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6346000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6347000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33533000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33876000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1355000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>905000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>842000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>331000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1154000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1079000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>997000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>817000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>425000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>660000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>723000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>725000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>782000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1249000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1104000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>833000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>487000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104436000</v>
+      </c>
+      <c r="E66" s="3">
         <v>102992000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>95770000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>95487000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94280000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91934000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93952000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>94933000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93898000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92416000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90937000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90857000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90247000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90012000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89871000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91513000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89364000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89085000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>88037000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4167,7 +4334,7 @@
         <v>2170000</v>
       </c>
       <c r="E70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="F70" s="3">
         <v>1970000</v>
@@ -4179,13 +4346,13 @@
         <v>1970000</v>
       </c>
       <c r="I70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="J70" s="3">
         <v>2248000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1930000</v>
       </c>
       <c r="L70" s="3">
         <v>1930000</v>
@@ -4194,7 +4361,7 @@
         <v>1930000</v>
       </c>
       <c r="N70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="O70" s="3">
         <v>2303000</v>
@@ -4203,7 +4370,7 @@
         <v>2303000</v>
       </c>
       <c r="Q70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="R70" s="3">
         <v>1746000</v>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52464000</v>
+      </c>
+      <c r="E72" s="3">
         <v>51107000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52767000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50336000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49380000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48326000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48074000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46527000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45803000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45148000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45708000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46178000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45508000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45031000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43162000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42125000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41622000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41208000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40678000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26037000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24649000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28247000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25293000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25016000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22203000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23750000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23088000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22546000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21488000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19382000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21330000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20819000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20974000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20805000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20373000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19755000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19412000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18827000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2598000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1126000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1224000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>513000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1707000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>889000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>821000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1261000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-585000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>942000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>678000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>977000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1220000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>637000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>550000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>666000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>811000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E83" s="3">
         <v>260000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>186000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>182000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>163000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>155000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>171000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>159000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>160000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>157000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>135000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>128000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>126000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>122000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>125000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>120000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>119000</v>
       </c>
       <c r="T83" s="3">
         <v>119000</v>
       </c>
       <c r="U83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="V83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1365000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1319000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1296000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1849000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1027000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1234000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1833000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1348000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>714000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1357000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1728000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1464000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>626000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1100000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1866000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>491000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>857000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1251000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-101000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-65000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-140000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-120000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-93000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-80000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-83000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-72000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-74000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-123000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-670000</v>
+      </c>
+      <c r="E94" s="3">
         <v>513000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-285000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>68000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>428000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-879000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-263000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>737000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-60000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-140000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>337000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-280000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-164000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-168000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-169000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-172000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-159000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-166000</v>
       </c>
       <c r="K96" s="3">
         <v>-166000</v>
       </c>
       <c r="L96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-158000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-159000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-160000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-163000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-134000</v>
       </c>
       <c r="R96" s="3">
         <v>-134000</v>
       </c>
       <c r="S96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-122000</v>
       </c>
       <c r="U96" s="3">
         <v>-122000</v>
       </c>
       <c r="V96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6027,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-842000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>886000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-614000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>248000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-421000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-399000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-612000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>458000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-531000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-788000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-571000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>664000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E102" s="3">
         <v>398000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-177000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>209000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-249000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>52000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-29000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-73000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>208000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>40000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>47000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12480000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12646000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12451000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12018000</v>
       </c>
-      <c r="G8" s="3">
-        <v>11500000</v>
-      </c>
       <c r="H8" s="3">
+        <v>10678000</v>
+      </c>
+      <c r="I8" s="3">
         <v>10403000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9866000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11476000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11085000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11156000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11006000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9486000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10469000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10103000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9770000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9854000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9686000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9634000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9496000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9350000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1582000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1545000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1523000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1388000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1492000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1344000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1365000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1382000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1425000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1362000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1364000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1336000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1317000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1296000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1273000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1239000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1200000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1176000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1169000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1157000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10898000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11101000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10928000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10630000</v>
       </c>
-      <c r="G10" s="3">
-        <v>10008000</v>
-      </c>
       <c r="H10" s="3">
+        <v>9292000</v>
+      </c>
+      <c r="I10" s="3">
         <v>9059000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8501000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10094000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9660000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9794000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9642000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8150000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9152000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8807000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8497000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8615000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8486000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8458000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8327000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8193000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,99 +1109,105 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
         <v>100000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>73000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>39000</v>
       </c>
-      <c r="G14" s="3">
-        <v>199000</v>
-      </c>
       <c r="H14" s="3">
+        <v>195000</v>
+      </c>
+      <c r="I14" s="3">
         <v>750000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>213000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>66000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>74000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>163000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>39000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>88000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>70000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>80000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E15" s="3">
         <v>105000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>53000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>31000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>29000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>32000</v>
       </c>
       <c r="L15" s="3">
         <v>32000</v>
@@ -1194,19 +1216,19 @@
         <v>32000</v>
       </c>
       <c r="N15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="O15" s="3">
         <v>36000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22000</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1214,8 +1236,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12254000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10849000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9419000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8708000</v>
       </c>
-      <c r="G17" s="3">
-        <v>10058000</v>
-      </c>
       <c r="H17" s="3">
+        <v>9150000</v>
+      </c>
+      <c r="I17" s="3">
         <v>9024000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8835000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9245000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9925000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10078000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9386000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10196000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9291000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9206000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8507000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8697000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8715000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8783000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8484000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8092000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1797000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3032000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3310000</v>
       </c>
-      <c r="G18" s="3">
-        <v>1442000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1528000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1379000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1031000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2231000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1160000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1078000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1620000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-710000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1178000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>897000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1263000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1157000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>971000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>851000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1012000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1258000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,8 +1432,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1465,73 +1498,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2108000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3292000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3496000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1624000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1710000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1542000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1186000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2402000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1319000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1238000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1777000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-575000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1306000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1023000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1385000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1282000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1091000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>970000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1131000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1355000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1797000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3032000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3310000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1442000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1528000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1379000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1031000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2231000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1160000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1078000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1620000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-710000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1178000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>897000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1263000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1157000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>971000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>851000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1012000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1258000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>362000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>626000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>686000</v>
       </c>
-      <c r="G24" s="3">
-        <v>289000</v>
-      </c>
       <c r="H24" s="3">
+        <v>312000</v>
+      </c>
+      <c r="I24" s="3">
         <v>273000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>194000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>458000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>229000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>227000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>328000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-170000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>230000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>180000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>257000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>414000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>305000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>272000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>317000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>418000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1435000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2406000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2624000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1153000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1106000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>837000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1773000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>931000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>851000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1292000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-540000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>948000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>717000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1006000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>743000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>666000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>579000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>695000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>840000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1399000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2385000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2598000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1126000</v>
-      </c>
       <c r="H27" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1080000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>801000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1707000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>889000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>821000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1261000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-583000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>911000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>678000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>977000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>714000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>637000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>550000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>666000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>811000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,31 +2042,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E29" s="3">
         <v>196000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3793000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="I29" s="3">
         <v>144000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2020,23 +2080,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>31000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>506000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,8 +2246,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2245,73 +2314,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1595000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2598000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1126000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1224000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>513000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1707000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>889000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>821000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1261000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-585000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>942000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>678000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>977000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1220000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>637000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>550000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>666000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>811000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1595000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2598000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1126000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1224000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>513000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1707000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>889000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>821000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1261000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-585000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>942000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>678000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>977000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1220000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>637000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>550000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>666000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>811000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E41" s="3">
         <v>656000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>709000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>377000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>370000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>547000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>338000</v>
       </c>
       <c r="J41" s="3">
         <v>338000</v>
       </c>
       <c r="K41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="L41" s="3">
         <v>587000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>599000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>551000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>499000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>460000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>489000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>450000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>617000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>690000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>482000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>442000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>436000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,73 +2779,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8406000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8146000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7921000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6479000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6609000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6367000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6401000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6472000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6558000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6380000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6201000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6154000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6196000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5953000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5856000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5786000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5922000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5693000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5649000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5597000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,149 +3051,158 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61840000</v>
+      </c>
+      <c r="E47" s="3">
         <v>62570000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>60076000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94237000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>91197000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>89637000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>84783000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>88221000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>89158000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>86345000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>84018000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81136000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>83855000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>83140000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>83195000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82677000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82680000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81203000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81050000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81707000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1026000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1002000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1057000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1076000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1123000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1628000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1535000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1519000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1521000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1045000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1032000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1040000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1060000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1072000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1067000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1072000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1067000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1065000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3389000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3349000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2544000</v>
       </c>
       <c r="G49" s="3">
         <v>2544000</v>
@@ -3104,22 +3214,22 @@
         <v>2544000</v>
       </c>
       <c r="J49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="K49" s="3">
         <v>2545000</v>
       </c>
       <c r="L49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="M49" s="3">
         <v>2547000</v>
       </c>
       <c r="N49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="O49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2189000</v>
       </c>
       <c r="P49" s="3">
         <v>2189000</v>
@@ -3128,25 +3238,28 @@
         <v>2189000</v>
       </c>
       <c r="R49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="S49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2309000</v>
       </c>
       <c r="T49" s="3">
         <v>2309000</v>
       </c>
       <c r="U49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="V49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1219000</v>
       </c>
       <c r="W49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,19 +3391,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36803000</v>
+      </c>
+      <c r="E52" s="3">
         <v>36969000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -3304,8 +3423,8 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3340,8 +3459,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>133440000</v>
+      </c>
+      <c r="E54" s="3">
         <v>132643000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>129811000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125987000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122750000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121266000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116107000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>119950000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121073000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118374000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115834000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112249000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114490000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113369000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113289000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>112422000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113632000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>110865000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>110243000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>108610000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3649,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,8 +3715,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,73 +3783,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21753000</v>
+      </c>
+      <c r="E59" s="3">
         <v>20853000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20274000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49274000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49140000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48221000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46664000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48503000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48555000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48232000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48055000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47670000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48313000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47936000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47972000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48614000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48542000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48216000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48129000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48185000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +3919,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7996000</v>
+        <v>7980000</v>
       </c>
       <c r="E61" s="3">
         <v>7996000</v>
       </c>
       <c r="F61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="G61" s="3">
         <v>7825000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6635000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6634000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6633000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6631000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6630000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6628000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6453000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6451000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6450000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6448000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6847000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6350000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6349000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6348000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6346000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6347000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33132000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33533000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33876000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1355000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>905000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>842000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>331000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1154000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1079000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>997000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>817000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>425000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>660000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>723000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>725000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>782000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1249000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1104000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>833000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>487000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106711000</v>
+      </c>
+      <c r="E66" s="3">
         <v>104436000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102992000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>95770000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95487000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94280000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91934000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93952000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>94933000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93898000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92416000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90937000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90857000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90247000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90012000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89871000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91513000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89364000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89085000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>88037000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,19 +4489,22 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="E70" s="3">
         <v>2170000</v>
       </c>
       <c r="F70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="G70" s="3">
         <v>1970000</v>
@@ -4349,13 +4516,13 @@
         <v>1970000</v>
       </c>
       <c r="J70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="K70" s="3">
         <v>2248000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1930000</v>
       </c>
       <c r="M70" s="3">
         <v>1930000</v>
@@ -4364,7 +4531,7 @@
         <v>1930000</v>
       </c>
       <c r="O70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="P70" s="3">
         <v>2303000</v>
@@ -4373,7 +4540,7 @@
         <v>2303000</v>
       </c>
       <c r="R70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="S70" s="3">
         <v>1746000</v>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52736000</v>
+      </c>
+      <c r="E72" s="3">
         <v>52464000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51107000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52767000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50336000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49380000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48326000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48074000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46527000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45803000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45148000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45708000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46178000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45508000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45031000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43162000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42125000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41622000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41208000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40678000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24759000</v>
+      </c>
+      <c r="E76" s="3">
         <v>26037000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24649000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28247000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25293000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25016000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22203000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23750000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23088000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22546000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21488000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19382000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21330000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20819000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20974000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20805000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20373000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19755000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19412000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18827000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1595000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2598000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1126000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1224000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>513000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1707000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>889000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>821000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1261000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-585000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>942000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>678000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>977000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1220000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>637000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>550000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>666000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>811000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E83" s="3">
         <v>311000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>260000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>186000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>182000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>163000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>155000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>171000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>159000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>160000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>157000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>135000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>128000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>126000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>122000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>125000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>120000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>119000</v>
       </c>
       <c r="U83" s="3">
         <v>119000</v>
       </c>
       <c r="V83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="W83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1551000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1365000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1319000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1296000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1849000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1027000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1234000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1833000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1348000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>714000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1357000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1728000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1464000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>626000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1100000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1866000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>491000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>857000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1251000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-136000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-101000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-65000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-140000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-120000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-93000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-80000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-82000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-62000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-70000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-72000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-74000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-123000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-670000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>513000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-285000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>68000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>428000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-879000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-263000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>737000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-140000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>337000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-280000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-241000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-245000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-164000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-168000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-169000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-172000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-159000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-166000</v>
       </c>
       <c r="L96" s="3">
         <v>-166000</v>
       </c>
       <c r="M96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-158000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-159000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-160000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-163000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-134000</v>
       </c>
       <c r="S96" s="3">
         <v>-134000</v>
       </c>
       <c r="T96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-122000</v>
       </c>
       <c r="V96" s="3">
         <v>-122000</v>
       </c>
       <c r="W96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,73 +6272,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1743000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-842000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>886000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-614000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>248000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-421000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-399000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-612000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>458000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-531000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-788000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-571000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>664000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E102" s="3">
         <v>39000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>398000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-177000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>209000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-249000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>52000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-29000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-167000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-73000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>208000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>40000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>47000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,306 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13011000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12480000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12646000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12451000</v>
       </c>
-      <c r="G8" s="3">
-        <v>12018000</v>
-      </c>
       <c r="H8" s="3">
+        <v>10962000</v>
+      </c>
+      <c r="I8" s="3">
         <v>10678000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10403000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9866000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11476000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11085000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11156000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11006000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9486000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10469000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10103000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9770000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9854000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9686000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9634000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9496000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9350000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1582000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1545000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1523000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1388000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1386000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1344000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1365000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1382000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1425000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1362000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1364000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1336000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1317000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1296000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1273000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1239000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1200000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1176000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1169000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1157000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11409000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10898000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11101000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10928000</v>
       </c>
-      <c r="G10" s="3">
-        <v>10630000</v>
-      </c>
       <c r="H10" s="3">
+        <v>9580000</v>
+      </c>
+      <c r="I10" s="3">
         <v>9292000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9059000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8501000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10094000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9660000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9794000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9642000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8150000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9152000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8807000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8497000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8615000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8486000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8458000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8327000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8193000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,76 +1129,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E14" s="3">
         <v>23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>73000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>195000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>750000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>213000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>66000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>74000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>33000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>163000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>39000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>88000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>70000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>80000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,28 +1212,28 @@
         <v>109000</v>
       </c>
       <c r="E15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F15" s="3">
         <v>105000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>53000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>31000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>29000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>32000</v>
       </c>
       <c r="M15" s="3">
         <v>32000</v>
@@ -1219,19 +1242,19 @@
         <v>32000</v>
       </c>
       <c r="O15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="P15" s="3">
         <v>36000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22000</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1239,8 +1262,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1248,8 +1271,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1297,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11618000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12254000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10849000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9419000</v>
       </c>
-      <c r="G17" s="3">
-        <v>8708000</v>
-      </c>
       <c r="H17" s="3">
+        <v>8098000</v>
+      </c>
+      <c r="I17" s="3">
         <v>9150000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9024000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8835000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9245000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9925000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10078000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9386000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10196000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9291000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9206000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8507000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8697000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8715000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8783000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8484000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8092000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E18" s="3">
         <v>226000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1797000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3032000</v>
       </c>
-      <c r="G18" s="3">
-        <v>3310000</v>
-      </c>
       <c r="H18" s="3">
+        <v>2864000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1528000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1379000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1031000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2231000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1160000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1078000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1620000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-710000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1178000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>897000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1263000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1157000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>971000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>851000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1012000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1258000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +1466,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1501,76 +1535,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1661000</v>
+      </c>
+      <c r="E21" s="3">
         <v>473000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2108000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3292000</v>
       </c>
-      <c r="G21" s="3">
-        <v>3496000</v>
-      </c>
       <c r="H21" s="3">
+        <v>3050000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1710000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1542000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1186000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2402000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1319000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1238000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1777000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-575000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1306000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1023000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1385000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1282000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1091000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>970000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1131000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1355000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1677,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E23" s="3">
         <v>226000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1797000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3032000</v>
       </c>
-      <c r="G23" s="3">
-        <v>3310000</v>
-      </c>
       <c r="H23" s="3">
+        <v>2864000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1528000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1379000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1031000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2231000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1160000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1078000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1620000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-710000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1178000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>897000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1263000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1157000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>971000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>851000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1012000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1258000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>362000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>626000</v>
       </c>
-      <c r="G24" s="3">
-        <v>686000</v>
-      </c>
       <c r="H24" s="3">
+        <v>594000</v>
+      </c>
+      <c r="I24" s="3">
         <v>312000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>273000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>194000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>458000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>229000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>227000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>328000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-170000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>230000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>180000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>257000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>414000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>305000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>272000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>317000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>418000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1890,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="E26" s="3">
         <v>206000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1435000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2406000</v>
       </c>
-      <c r="G26" s="3">
-        <v>2624000</v>
-      </c>
       <c r="H26" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1216000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1106000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>837000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1773000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>931000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>851000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1292000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-540000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>948000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>717000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1006000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>743000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>666000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>579000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>695000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>840000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="E27" s="3">
         <v>183000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1399000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2385000</v>
       </c>
-      <c r="G27" s="3">
-        <v>2598000</v>
-      </c>
       <c r="H27" s="3">
+        <v>2244000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1189000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1080000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>801000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1707000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>889000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>821000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1261000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-583000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>911000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>678000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>977000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>714000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>637000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>550000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>666000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>811000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,34 +2103,37 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="E29" s="3">
         <v>325000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>196000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
+        <v>354000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-63000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>144000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2083,23 +2144,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>31000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>506000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2113,8 +2174,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2245,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,8 +2316,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2317,76 +2387,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E33" s="3">
         <v>508000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1595000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2598000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1126000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1224000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>513000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1707000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>889000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>821000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1261000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-585000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>942000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>678000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>977000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1220000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>637000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>550000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>666000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>811000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2529,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E35" s="3">
         <v>508000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1595000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2598000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1126000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1224000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>513000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1707000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>889000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>821000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1261000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-585000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>942000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>678000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>977000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1220000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>637000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>550000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>666000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>811000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2705,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2732,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E41" s="3">
         <v>690000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>656000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>709000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>377000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>370000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>547000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>338000</v>
       </c>
       <c r="K41" s="3">
         <v>338000</v>
       </c>
       <c r="L41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="M41" s="3">
         <v>587000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>599000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>551000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>499000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>460000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>489000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>450000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>617000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>690000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>482000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>442000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>436000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,76 +2872,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8364000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8406000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8146000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7921000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6479000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6609000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6367000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6401000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6472000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6558000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6380000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6201000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6154000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6196000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5953000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5856000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5786000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5922000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5693000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5649000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5597000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3014,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3085,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,158 +3156,167 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>64701000</v>
+      </c>
+      <c r="E47" s="3">
         <v>61840000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>62570000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>60076000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>94237000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>91197000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>89637000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>84783000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>88221000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>89158000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>86345000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>84018000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81136000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>83855000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>83140000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>83195000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82677000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82680000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81203000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81050000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>81707000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>939000</v>
+      </c>
+      <c r="E48" s="3">
         <v>965000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1026000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1002000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1057000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1076000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1123000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1628000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1535000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1519000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1521000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1045000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1032000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1040000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1060000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1072000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1067000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1072000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1067000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1065000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3389000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3349000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2544000</v>
       </c>
       <c r="H49" s="3">
         <v>2544000</v>
@@ -3217,22 +3328,22 @@
         <v>2544000</v>
       </c>
       <c r="K49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="L49" s="3">
         <v>2545000</v>
       </c>
       <c r="M49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="N49" s="3">
         <v>2547000</v>
       </c>
       <c r="O49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="P49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2189000</v>
       </c>
       <c r="Q49" s="3">
         <v>2189000</v>
@@ -3241,25 +3352,28 @@
         <v>2189000</v>
       </c>
       <c r="S49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="T49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2309000</v>
       </c>
       <c r="U49" s="3">
         <v>2309000</v>
       </c>
       <c r="V49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="W49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1219000</v>
       </c>
       <c r="X49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3440,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,22 +3511,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>36803000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36969000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -3426,8 +3546,8 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3462,8 +3582,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3653,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99440000</v>
+      </c>
+      <c r="E54" s="3">
         <v>133440000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>132643000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>129811000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125987000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122750000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121266000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116107000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119950000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121073000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118374000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>115834000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112249000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114490000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113369000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113289000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>112422000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113632000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>110865000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>110243000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>108610000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3753,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3780,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3718,8 +3849,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,76 +3920,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22025000</v>
+      </c>
+      <c r="E59" s="3">
         <v>21753000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20853000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20274000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49274000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49140000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48221000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46664000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48503000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48555000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48232000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48055000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47670000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48313000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47936000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47972000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48614000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48542000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48216000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48129000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48185000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4062,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7976000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>7996000</v>
       </c>
       <c r="F61" s="3">
         <v>7996000</v>
       </c>
       <c r="G61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="H61" s="3">
         <v>7825000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6635000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6634000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6633000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6631000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6630000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6628000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6453000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6451000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6450000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6448000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6847000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6350000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6349000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6348000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6346000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6347000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33132000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33533000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33876000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1355000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>905000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>842000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>331000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1154000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1079000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>997000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>817000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>425000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>660000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>723000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>725000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>782000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1249000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1104000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>833000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>487000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4275,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4346,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4417,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74261000</v>
+      </c>
+      <c r="E66" s="3">
         <v>106711000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>104436000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102992000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95770000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95487000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>94280000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91934000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93952000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94933000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93898000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92416000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90937000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90857000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90247000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90012000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89871000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91513000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89364000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89085000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>88037000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4517,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4586,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4657,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4501,13 +4669,13 @@
         <v>1970000</v>
       </c>
       <c r="E70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="F70" s="3">
         <v>2170000</v>
       </c>
       <c r="G70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="H70" s="3">
         <v>1970000</v>
@@ -4519,13 +4687,13 @@
         <v>1970000</v>
       </c>
       <c r="K70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="L70" s="3">
         <v>2248000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1930000</v>
       </c>
       <c r="N70" s="3">
         <v>1930000</v>
@@ -4534,7 +4702,7 @@
         <v>1930000</v>
       </c>
       <c r="P70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="Q70" s="3">
         <v>2303000</v>
@@ -4543,7 +4711,7 @@
         <v>2303000</v>
       </c>
       <c r="S70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="T70" s="3">
         <v>1746000</v>
@@ -4560,8 +4728,11 @@
       <c r="X70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4799,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53294000</v>
+      </c>
+      <c r="E72" s="3">
         <v>52736000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52464000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>51107000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52767000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50336000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49380000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48326000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48074000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46527000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45803000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45148000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45708000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46178000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45508000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45031000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43162000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42125000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41622000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41208000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40678000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4941,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5012,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5083,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23209000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24759000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26037000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24649000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28247000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25293000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25016000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22203000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23750000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23088000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22546000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21488000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19382000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21330000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20819000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20974000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20805000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20373000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19755000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19412000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18827000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5225,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E81" s="3">
         <v>508000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1595000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2598000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1126000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1224000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>513000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1707000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>889000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>821000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1261000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-585000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>942000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>678000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>977000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1220000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>637000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>550000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>666000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>811000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5401,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E83" s="3">
         <v>247000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>311000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>260000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>186000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>182000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>163000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>155000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>171000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>159000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>160000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>157000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>135000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>128000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>126000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>122000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>125000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>120000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>119000</v>
       </c>
       <c r="V83" s="3">
         <v>119000</v>
       </c>
       <c r="W83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="X83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5541,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5612,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5683,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5754,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5825,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>871000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1329000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1551000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1365000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1319000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1296000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1849000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1027000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1234000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1833000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1348000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>714000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1357000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1728000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1464000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>626000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1866000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>491000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>857000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1251000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5925,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-136000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-101000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-65000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-140000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-120000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-93000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-80000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-82000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-62000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-70000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-72000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-74000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-123000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6065,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6136,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E94" s="3">
         <v>446000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-670000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>513000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-285000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>68000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>428000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-879000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-263000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>737000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-60000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-140000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>337000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-280000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6236,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-241000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-245000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-164000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-168000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-169000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-172000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-159000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-166000</v>
       </c>
       <c r="M96" s="3">
         <v>-166000</v>
       </c>
       <c r="N96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-158000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-159000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-163000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-134000</v>
       </c>
       <c r="T96" s="3">
         <v>-134000</v>
       </c>
       <c r="U96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-122000</v>
       </c>
       <c r="W96" s="3">
         <v>-122000</v>
       </c>
       <c r="X96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6376,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6447,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,76 +6518,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1175000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-842000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>886000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-614000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>248000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-421000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-399000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-612000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>458000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-531000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-788000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-571000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>664000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,72 +6660,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E102" s="3">
         <v>32000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>398000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-177000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>209000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-249000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>52000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-167000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-73000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>208000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>40000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>47000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,319 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12337000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13011000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12480000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12646000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12451000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10962000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10678000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10403000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9866000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11476000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11085000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11156000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11006000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9486000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10469000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10103000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9770000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9854000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9686000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9634000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9496000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9350000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1602000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1582000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1545000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1523000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1382000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1386000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1344000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1365000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1382000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1425000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1362000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1364000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1317000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1296000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1273000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1239000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1200000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1176000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1169000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1157000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10725000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11409000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10898000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11101000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10928000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9580000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9292000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9059000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8501000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10094000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9660000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9794000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9642000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8150000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9152000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8807000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8497000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8615000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8486000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8458000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8327000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8193000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,8 +1075,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,111 +1149,117 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>25000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>73000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>195000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>750000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>213000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>66000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>74000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>33000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>163000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>39000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>88000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>70000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>80000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>109000</v>
+        <v>87000</v>
       </c>
       <c r="E15" s="3">
         <v>109000</v>
       </c>
       <c r="F15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="G15" s="3">
         <v>105000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>53000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>30000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>32000</v>
       </c>
       <c r="N15" s="3">
         <v>32000</v>
@@ -1245,19 +1268,19 @@
         <v>32000</v>
       </c>
       <c r="P15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>36000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22000</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1265,8 +1288,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1274,8 +1297,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1298,150 +1324,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11540000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11618000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12254000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10849000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9419000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8098000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9150000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9024000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8835000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9245000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9925000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10078000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9386000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10196000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9291000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9206000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8507000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8697000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8715000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8783000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8484000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8092000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1393000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>226000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1797000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3032000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2864000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1528000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1379000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1031000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2231000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1160000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1078000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1620000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-710000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1178000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>897000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1263000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1157000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>971000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>851000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1012000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1258000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1467,8 +1500,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1538,79 +1572,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1661000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>473000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2108000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3292000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3050000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1710000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1542000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1186000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2402000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1319000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1238000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1777000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-575000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1306000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1023000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1385000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1282000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1091000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>970000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1131000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1355000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1680,150 +1720,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1393000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>226000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1797000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3032000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2864000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1528000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1379000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1031000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2231000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1160000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1078000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1620000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-710000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1178000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>897000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1263000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1157000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>971000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>851000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1012000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1258000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E24" s="3">
         <v>281000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>362000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>626000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>594000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>312000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>273000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>194000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>458000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>229000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>227000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>328000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>230000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>180000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>257000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>414000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>305000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>272000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>317000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>418000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1893,150 +1942,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1112000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>206000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1435000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2406000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2270000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1216000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1106000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>837000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1773000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>931000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>851000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1292000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-540000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>948000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>717000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1006000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>743000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>666000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>579000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>695000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>840000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1111000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>183000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1399000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2385000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2244000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1189000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1080000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>801000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1707000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>889000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>821000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1261000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-583000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>911000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>678000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>977000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>714000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>637000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>550000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>666000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>811000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2106,37 +2164,40 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-321000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>325000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>196000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>354000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-63000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>144000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2147,23 +2208,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>31000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>506000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2177,8 +2238,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2248,8 +2312,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2319,8 +2386,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2390,79 +2460,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E33" s="3">
         <v>790000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>508000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1595000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2598000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1126000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1224000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>513000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1707000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>889000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>821000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1261000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-585000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>942000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>678000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>977000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1220000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>637000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>550000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>666000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>811000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2532,155 +2608,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E35" s="3">
         <v>790000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>508000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1595000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2598000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1126000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1224000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>513000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1707000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>889000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>821000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1261000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-585000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>942000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>678000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>977000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1220000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>637000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>550000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>666000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>811000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2706,8 +2791,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2733,79 +2819,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E41" s="3">
         <v>763000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>690000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>656000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>709000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>377000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>370000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>547000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>338000</v>
       </c>
       <c r="L41" s="3">
         <v>338000</v>
       </c>
       <c r="M41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="N41" s="3">
         <v>587000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>599000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>551000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>499000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>460000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>489000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>450000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>617000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>690000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>482000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>442000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>436000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2875,79 +2965,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8874000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8364000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8406000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8146000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7921000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6479000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6609000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6367000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6401000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6472000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6558000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6380000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6201000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6154000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6196000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5953000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5856000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5786000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5922000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5693000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5649000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5597000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3017,8 +3113,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3088,8 +3187,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3159,167 +3261,176 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61768000</v>
+      </c>
+      <c r="E47" s="3">
         <v>64701000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61840000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>62570000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>60076000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>94237000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>91197000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>89637000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84783000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>88221000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89158000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>86345000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>84018000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81136000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>83855000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>83140000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>83195000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82677000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82680000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81203000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>81050000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81707000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>939000</v>
+        <v>966000</v>
       </c>
       <c r="E48" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="F48" s="3">
         <v>965000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1026000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1002000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1057000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1076000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1123000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1628000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1535000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1519000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1521000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1032000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1040000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1060000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1072000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1067000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1072000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1067000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1065000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3497000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3502000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3389000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3349000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2544000</v>
       </c>
       <c r="I49" s="3">
         <v>2544000</v>
@@ -3331,22 +3442,22 @@
         <v>2544000</v>
       </c>
       <c r="L49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="M49" s="3">
         <v>2545000</v>
       </c>
       <c r="N49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="O49" s="3">
         <v>2547000</v>
       </c>
       <c r="P49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2189000</v>
       </c>
       <c r="R49" s="3">
         <v>2189000</v>
@@ -3355,25 +3466,28 @@
         <v>2189000</v>
       </c>
       <c r="T49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="U49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>2309000</v>
       </c>
       <c r="V49" s="3">
         <v>2309000</v>
       </c>
       <c r="W49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="X49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1219000</v>
       </c>
       <c r="Y49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3443,8 +3557,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3514,25 +3631,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>36803000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36969000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3549,8 +3669,8 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3585,8 +3705,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3656,79 +3779,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97150000</v>
+      </c>
+      <c r="E54" s="3">
         <v>99440000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133440000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>132643000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>129811000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125987000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122750000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121266000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116107000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119950000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121073000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118374000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115834000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112249000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114490000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113369000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113289000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>112422000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>113632000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>110865000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>110243000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>108610000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3754,8 +3883,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3781,8 +3911,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3852,8 +3983,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3923,79 +4057,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22025000</v>
+        <v>22429000</v>
       </c>
       <c r="E59" s="3">
+        <v>22490000</v>
+      </c>
+      <c r="F59" s="3">
         <v>21753000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20853000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20274000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49274000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49140000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48221000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46664000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48503000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48555000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48232000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48055000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47670000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48313000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47936000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47972000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48614000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48542000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48216000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48129000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48185000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4065,150 +4205,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7973000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7976000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>7996000</v>
       </c>
       <c r="G61" s="3">
         <v>7996000</v>
       </c>
       <c r="H61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="I61" s="3">
         <v>7825000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6635000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6634000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6633000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6631000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6630000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6628000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6453000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6451000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6450000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6448000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6847000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6350000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6349000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6348000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6346000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6347000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E62" s="3">
         <v>833000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33132000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33533000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33876000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1355000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>905000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>842000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1154000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1079000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>997000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>817000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>425000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>660000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>723000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>725000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>782000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1249000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1104000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>833000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>487000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4278,8 +4427,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4349,8 +4501,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4420,79 +4575,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>73938000</v>
+      </c>
+      <c r="E66" s="3">
         <v>74261000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106711000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>104436000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102992000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95770000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95487000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>94280000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91934000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93952000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94933000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93898000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>92416000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90937000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90857000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90247000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90012000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89871000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91513000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89364000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89085000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>88037000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4518,8 +4679,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4589,8 +4751,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4660,8 +4825,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4672,13 +4840,13 @@
         <v>1970000</v>
       </c>
       <c r="F70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="G70" s="3">
         <v>2170000</v>
       </c>
       <c r="H70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="I70" s="3">
         <v>1970000</v>
@@ -4690,13 +4858,13 @@
         <v>1970000</v>
       </c>
       <c r="L70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="M70" s="3">
         <v>2248000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1930000</v>
       </c>
       <c r="O70" s="3">
         <v>1930000</v>
@@ -4705,7 +4873,7 @@
         <v>1930000</v>
       </c>
       <c r="Q70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="R70" s="3">
         <v>2303000</v>
@@ -4714,7 +4882,7 @@
         <v>2303000</v>
       </c>
       <c r="T70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="U70" s="3">
         <v>1746000</v>
@@ -4731,8 +4899,11 @@
       <c r="Y70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4802,79 +4973,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53688000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53294000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52736000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52464000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>51107000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52767000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50336000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>49380000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48326000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48074000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46527000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45803000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45148000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45708000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46178000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45508000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45031000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43162000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42125000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41622000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>41208000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>40678000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4944,8 +5121,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5015,8 +5195,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5086,79 +5269,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21242000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23209000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24759000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26037000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24649000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28247000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25293000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25016000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22203000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23750000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23088000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22546000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21488000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19382000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21330000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20819000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20974000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20805000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20373000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19755000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19412000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18827000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5228,155 +5417,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E81" s="3">
         <v>790000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>508000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1595000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2598000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1126000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1224000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>513000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1707000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>889000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>821000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1261000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-585000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>942000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>678000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>977000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1220000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>637000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>550000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>666000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>811000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5402,79 +5600,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E83" s="3">
         <v>268000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>247000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>311000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>260000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>186000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>182000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>163000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>155000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>171000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>159000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>160000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>157000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>135000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>128000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>126000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>122000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>125000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>120000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>119000</v>
       </c>
       <c r="W83" s="3">
         <v>119000</v>
       </c>
       <c r="X83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="Y83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5544,8 +5746,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5615,8 +5820,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5686,8 +5894,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5757,8 +5968,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5828,79 +6042,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E89" s="3">
         <v>871000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1329000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1551000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1365000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1319000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1296000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1849000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1027000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1234000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1833000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1348000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>714000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1728000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1464000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>626000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1100000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1866000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>491000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>857000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1251000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5926,79 +6146,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-89000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-136000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-61000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-101000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-140000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-120000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-93000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-80000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-62000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-70000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-72000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-74000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-123000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6068,8 +6292,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6139,79 +6366,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E94" s="3">
         <v>221000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>446000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-670000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>513000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-285000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>68000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>428000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-879000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-263000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>737000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-60000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-140000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>337000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-280000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6237,79 +6470,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-230000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-235000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-241000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-245000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-164000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-168000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-169000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-172000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-159000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-166000</v>
       </c>
       <c r="N96" s="3">
         <v>-166000</v>
       </c>
       <c r="O96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-158000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-159000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-160000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-163000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-134000</v>
       </c>
       <c r="U96" s="3">
         <v>-134000</v>
       </c>
       <c r="V96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-122000</v>
       </c>
       <c r="X96" s="3">
         <v>-122000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6379,8 +6616,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6450,8 +6690,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6521,79 +6764,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1046000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-842000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>886000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-614000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>248000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-421000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-399000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-612000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>458000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-531000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-788000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-571000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>664000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6663,75 +6912,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-83000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>398000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-177000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>209000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-249000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>52000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-167000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-73000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>208000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>40000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>47000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12220000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12337000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13011000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12480000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12646000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12451000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10962000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10678000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10403000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9866000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11476000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11085000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11156000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11006000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9486000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10469000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10103000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9770000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9854000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9686000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9634000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9496000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9350000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1612000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1602000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1582000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1545000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1523000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1382000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1386000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1344000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1365000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1382000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1425000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1362000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1364000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1336000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1317000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1296000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1273000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1239000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1200000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1176000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1169000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1157000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10601000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10725000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11409000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10898000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11101000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10928000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9580000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9292000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9059000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8501000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10094000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9660000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9794000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9642000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8150000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9152000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8807000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8497000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8615000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8486000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8458000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8327000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8193000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1092,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,82 +1169,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>73000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>195000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>750000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>213000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>66000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>74000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>33000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>163000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>39000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>88000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>70000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>80000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,34 +1258,34 @@
         <v>87000</v>
       </c>
       <c r="E15" s="3">
-        <v>109000</v>
+        <v>87000</v>
       </c>
       <c r="F15" s="3">
         <v>109000</v>
       </c>
       <c r="G15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="H15" s="3">
         <v>105000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>53000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>32000</v>
       </c>
       <c r="O15" s="3">
         <v>32000</v>
@@ -1271,19 +1294,19 @@
         <v>32000</v>
       </c>
       <c r="Q15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="R15" s="3">
         <v>36000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22000</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1291,8 +1314,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1300,8 +1323,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1325,156 +1351,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13535000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11540000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11618000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12254000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10849000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9419000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8098000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9150000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9024000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8835000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9245000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9925000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10078000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9386000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10196000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9291000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9206000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8507000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8697000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8715000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8783000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8484000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8092000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1315000</v>
+      </c>
+      <c r="E18" s="3">
         <v>797000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1393000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>226000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1797000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3032000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2864000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1528000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1379000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1031000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2231000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1160000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1078000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1620000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-710000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1178000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>897000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1263000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1157000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>971000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>851000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1012000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1258000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,8 +1534,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1575,82 +1609,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1099000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1033000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1661000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>473000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2108000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3292000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3050000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1710000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1542000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1186000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2402000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1319000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1238000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1777000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-575000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1306000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1023000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1385000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1282000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1091000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>970000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1131000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1355000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,156 +1763,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1315000</v>
+      </c>
+      <c r="E23" s="3">
         <v>797000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1393000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>226000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1797000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3032000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2864000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1528000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1379000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1031000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2231000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1160000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1078000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1620000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-710000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1178000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>897000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1263000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1157000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>971000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>851000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1012000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1258000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-291000</v>
+      </c>
+      <c r="E24" s="3">
         <v>151000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>281000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>362000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>626000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>594000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>312000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>273000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>194000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>458000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>229000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>227000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>328000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-170000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>230000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>180000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>257000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>414000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>305000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>272000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>317000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>418000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1945,156 +1994,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1024000</v>
+      </c>
+      <c r="E26" s="3">
         <v>646000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1112000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>206000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1435000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2406000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2270000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1216000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1106000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>837000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1773000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>931000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>851000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1292000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-540000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>948000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>717000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1006000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>743000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>666000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>579000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>695000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>840000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1042000</v>
+      </c>
+      <c r="E27" s="3">
         <v>630000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1111000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>183000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1399000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2385000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2244000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1189000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1080000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>801000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1707000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>889000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>821000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-583000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>911000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>678000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>977000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>714000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>637000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>550000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>666000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>811000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2167,8 +2225,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2176,31 +2237,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-321000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>325000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>196000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>354000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-63000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>144000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2211,23 +2272,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>31000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>506000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2241,8 +2302,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2315,8 +2379,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2389,8 +2456,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2463,82 +2533,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1042000</v>
+      </c>
+      <c r="E33" s="3">
         <v>630000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>790000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>508000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1595000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2598000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1126000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1224000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>513000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1707000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>889000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>821000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-585000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>942000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>678000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>977000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1220000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>637000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>550000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>666000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>811000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2611,161 +2687,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1042000</v>
+      </c>
+      <c r="E35" s="3">
         <v>630000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>790000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>508000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1595000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2598000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1126000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1224000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>513000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1707000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>889000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>821000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-585000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>942000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>678000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>977000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1220000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>637000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>550000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>666000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>811000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2792,8 +2877,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2820,82 +2906,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1130000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>763000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>690000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>656000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>709000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>377000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>370000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>547000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>338000</v>
       </c>
       <c r="M41" s="3">
         <v>338000</v>
       </c>
       <c r="N41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="O41" s="3">
         <v>587000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>599000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>551000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>499000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>460000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>489000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>450000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>617000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>690000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>482000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>442000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>436000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2968,82 +3058,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8824000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8874000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8364000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8406000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8146000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7921000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6479000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6609000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6367000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6401000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6472000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6558000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6380000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6201000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6154000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6196000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5953000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5856000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5786000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5922000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5693000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5649000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5597000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3116,8 +3212,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3190,8 +3289,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3264,176 +3366,185 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61055000</v>
+      </c>
+      <c r="E47" s="3">
         <v>61768000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>64701000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61840000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>62570000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>60076000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>94237000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>91197000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>89637000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>84783000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>88221000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>89158000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>86345000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>84018000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81136000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>83855000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>83140000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>83195000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82677000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82680000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>81203000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81050000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81707000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E48" s="3">
         <v>966000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1253000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>965000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1026000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1002000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1057000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1076000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1123000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1628000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1535000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1519000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1521000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1045000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1032000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1040000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1060000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1072000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1067000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1072000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1067000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1065000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3496000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3497000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3502000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3389000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3349000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2544000</v>
       </c>
       <c r="J49" s="3">
         <v>2544000</v>
@@ -3445,22 +3556,22 @@
         <v>2544000</v>
       </c>
       <c r="M49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="N49" s="3">
         <v>2545000</v>
       </c>
       <c r="O49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="P49" s="3">
         <v>2547000</v>
       </c>
       <c r="Q49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="R49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2189000</v>
       </c>
       <c r="S49" s="3">
         <v>2189000</v>
@@ -3469,25 +3580,28 @@
         <v>2189000</v>
       </c>
       <c r="U49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="V49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2309000</v>
       </c>
       <c r="W49" s="3">
         <v>2309000</v>
       </c>
       <c r="X49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1219000</v>
       </c>
       <c r="Z49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3560,8 +3674,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3634,28 +3751,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>36803000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36969000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3672,8 +3792,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3708,8 +3828,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3782,82 +3905,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96350000</v>
+      </c>
+      <c r="E54" s="3">
         <v>97150000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>99440000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>133440000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>132643000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>129811000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125987000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>122750000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121266000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>116107000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119950000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121073000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118374000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115834000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112249000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>114490000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113369000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113289000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>112422000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113632000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>110865000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>110243000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>108610000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3884,8 +4013,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3912,8 +4042,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3986,8 +4117,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4060,82 +4194,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23229000</v>
+      </c>
+      <c r="E59" s="3">
         <v>22429000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22490000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21753000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20853000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20274000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49274000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49140000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48221000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46664000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48503000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48555000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48232000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48055000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47670000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48313000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47936000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47972000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48614000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48542000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48216000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48129000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48185000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4208,156 +4348,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7970000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7973000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7976000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>7996000</v>
       </c>
       <c r="H61" s="3">
         <v>7996000</v>
       </c>
       <c r="I61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="J61" s="3">
         <v>7825000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6635000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6634000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6633000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6631000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6630000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6628000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6453000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6451000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6450000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6448000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6847000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6350000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6349000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6348000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6346000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6347000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>402000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>833000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33132000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33533000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33876000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1355000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>905000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>842000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>331000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1154000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1079000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>997000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>817000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>425000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>660000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>723000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>725000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>782000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1249000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1104000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>833000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>487000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4430,8 +4579,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4504,8 +4656,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4578,82 +4733,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76235000</v>
+      </c>
+      <c r="E66" s="3">
         <v>73938000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74261000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106711000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>104436000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102992000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95770000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95487000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>94280000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91934000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93952000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>94933000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>93898000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92416000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90937000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90857000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90247000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90012000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89871000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>91513000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89364000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89085000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>88037000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4680,8 +4841,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4754,8 +4916,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4828,8 +4993,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4843,13 +5011,13 @@
         <v>1970000</v>
       </c>
       <c r="G70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="H70" s="3">
         <v>2170000</v>
       </c>
       <c r="I70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="J70" s="3">
         <v>1970000</v>
@@ -4861,13 +5029,13 @@
         <v>1970000</v>
       </c>
       <c r="M70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="N70" s="3">
         <v>2248000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1930000</v>
       </c>
       <c r="P70" s="3">
         <v>1930000</v>
@@ -4876,7 +5044,7 @@
         <v>1930000</v>
       </c>
       <c r="R70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="S70" s="3">
         <v>2303000</v>
@@ -4885,7 +5053,7 @@
         <v>2303000</v>
       </c>
       <c r="U70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="V70" s="3">
         <v>1746000</v>
@@ -4902,8 +5070,11 @@
       <c r="Z70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4976,82 +5147,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52412000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53688000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53294000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52736000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52464000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>51107000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52767000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50336000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49380000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48326000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48074000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46527000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45803000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45148000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45708000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46178000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45508000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45031000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>43162000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42125000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>41622000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41208000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>40678000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5124,8 +5301,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5198,8 +5378,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5272,82 +5455,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18145000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21242000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23209000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24759000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26037000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24649000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28247000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25293000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25016000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22203000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23750000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23088000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22546000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21488000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19382000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21330000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20819000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20974000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20805000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20373000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19755000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19412000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18827000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5420,161 +5609,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1042000</v>
+      </c>
+      <c r="E81" s="3">
         <v>630000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>790000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>508000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1595000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2598000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1126000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1224000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>513000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1707000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>889000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>821000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-585000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>942000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>678000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>977000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1220000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>637000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>550000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>666000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>811000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5601,82 +5799,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E83" s="3">
         <v>236000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>268000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>247000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>311000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>260000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>186000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>182000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>163000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>155000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>171000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>159000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>160000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>157000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>135000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>128000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>126000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>122000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>125000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>120000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>119000</v>
       </c>
       <c r="X83" s="3">
         <v>119000</v>
       </c>
       <c r="Y83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="Z83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5749,8 +5951,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5823,8 +6028,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5897,8 +6105,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5971,8 +6182,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6045,82 +6259,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E89" s="3">
         <v>432000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>871000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1329000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1551000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1365000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1319000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1296000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1849000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1027000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1234000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1833000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1348000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>714000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1357000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1728000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1464000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>626000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1100000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1866000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>491000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>857000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1251000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6147,82 +6367,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-130000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-89000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-136000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-101000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-140000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-120000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-93000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-82000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-66000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-62000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-83000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-70000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-72000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-123000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6295,8 +6519,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6369,82 +6596,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1119000</v>
+      </c>
+      <c r="E94" s="3">
         <v>981000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>221000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>446000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-670000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>513000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-285000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>68000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>428000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-879000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-263000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>737000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-60000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-140000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>337000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-280000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6471,82 +6704,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-230000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-235000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-241000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-245000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-164000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-168000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-169000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-172000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-159000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-166000</v>
       </c>
       <c r="O96" s="3">
         <v>-166000</v>
       </c>
       <c r="P96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-159000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-160000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-163000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-134000</v>
       </c>
       <c r="V96" s="3">
         <v>-134000</v>
       </c>
       <c r="W96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-122000</v>
       </c>
       <c r="Y96" s="3">
         <v>-122000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6619,8 +6856,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6693,8 +6933,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6767,82 +7010,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-918000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-842000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>886000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-614000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>248000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-421000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-399000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-612000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>458000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-531000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-788000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-571000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>664000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6915,78 +7164,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-364000</v>
+      </c>
+      <c r="E102" s="3">
         <v>367000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>398000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-177000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>209000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-249000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>48000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>52000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-29000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-167000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-73000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>208000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>40000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>47000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13208000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12220000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12337000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13011000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12480000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12646000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12451000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10962000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10678000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10403000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9866000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11476000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11085000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11156000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11006000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9486000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10469000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10103000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9770000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9854000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9686000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9634000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9496000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9350000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1619000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1612000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1602000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1582000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1545000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1523000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1382000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1386000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1344000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1365000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1382000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1425000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1362000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1364000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1336000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1317000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1296000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1273000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1239000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1200000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1176000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1169000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1157000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11526000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10601000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10725000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11409000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10898000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11101000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10928000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9580000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9292000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9059000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8501000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10094000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9660000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9794000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9642000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8150000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9152000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8807000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8497000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8615000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8486000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8458000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8327000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8193000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,8 +1109,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,123 +1189,129 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>73000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>39000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>195000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>750000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>213000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>66000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>74000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>33000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>163000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>39000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>88000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>70000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>80000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>87000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="3">
         <v>87000</v>
       </c>
       <c r="F15" s="3">
-        <v>109000</v>
+        <v>87000</v>
       </c>
       <c r="G15" s="3">
         <v>109000</v>
       </c>
       <c r="H15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="I15" s="3">
         <v>105000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>53000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>29000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>32000</v>
       </c>
       <c r="P15" s="3">
         <v>32000</v>
@@ -1297,19 +1320,19 @@
         <v>32000</v>
       </c>
       <c r="R15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="S15" s="3">
         <v>36000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22000</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1317,8 +1340,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1326,8 +1349,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1352,162 +1378,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14128000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13535000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11540000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11618000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12254000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10849000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9419000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8098000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9150000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9024000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8835000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9245000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9925000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10078000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9386000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10196000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9291000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9206000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8507000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8697000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8715000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8783000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8484000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8092000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-920000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1315000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>797000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1393000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>226000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1797000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3032000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2864000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1528000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1379000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1031000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2231000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1160000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1620000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-710000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1178000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>897000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1263000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1157000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>971000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>851000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1012000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1258000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1535,8 +1568,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1612,85 +1646,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-726000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1099000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1033000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1661000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>473000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2108000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3292000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3050000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1710000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1542000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1186000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2402000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1319000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1238000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1777000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-575000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1306000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1023000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1385000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1282000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1091000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>970000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1131000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1355000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1766,162 +1806,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-920000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1315000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>797000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1393000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>226000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1797000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3032000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2864000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1528000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1379000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1031000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2231000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1160000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1620000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-710000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1178000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>897000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1263000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1157000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>971000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>851000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1012000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1258000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-291000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>151000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>281000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>362000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>626000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>594000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>312000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>273000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>194000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>458000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>229000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>227000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>328000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-170000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>230000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>180000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>257000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>414000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>305000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>272000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>317000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>418000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1997,162 +2046,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-683000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1024000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>646000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1112000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>206000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1435000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2406000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2270000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1216000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1106000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>837000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1773000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>931000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>851000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1292000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-540000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>948000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>717000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1006000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>743000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>666000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>579000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>695000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>840000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-694000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1042000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>630000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1111000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>183000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1399000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2385000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2244000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1189000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1080000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>801000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1707000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>889000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>821000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1261000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-583000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>911000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>678000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>977000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>714000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>637000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>550000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>666000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>811000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2228,8 +2286,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2240,31 +2301,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-321000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>325000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>196000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>354000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-63000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>144000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2275,23 +2336,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>31000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>506000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2305,8 +2366,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2382,8 +2446,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2459,8 +2526,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2536,85 +2606,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-694000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1042000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>630000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>790000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>508000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1595000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2598000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1126000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1224000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>513000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1707000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>889000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>821000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1261000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-585000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>942000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>678000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>977000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1220000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>637000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>550000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>666000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>811000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2690,167 +2766,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-694000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1042000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>630000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>790000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>508000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1595000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2598000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1126000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1224000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>513000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1707000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>889000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>821000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1261000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-585000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>942000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>678000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>977000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1220000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>637000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>550000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>666000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>811000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2878,8 +2963,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2907,85 +2993,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>786000</v>
+      </c>
+      <c r="E41" s="3">
         <v>766000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1130000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>763000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>690000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>656000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>709000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>377000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>370000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>547000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>338000</v>
       </c>
       <c r="N41" s="3">
         <v>338000</v>
       </c>
       <c r="O41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="P41" s="3">
         <v>587000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>599000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>551000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>499000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>460000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>489000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>450000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>617000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>690000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>482000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>442000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>436000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3061,85 +3151,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9150000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8824000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8874000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8364000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8406000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8146000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7921000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6479000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6609000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6367000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6401000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6472000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6558000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6380000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6201000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6154000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6196000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5953000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5856000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5786000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5922000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5693000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5649000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5597000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3215,8 +3311,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3292,8 +3391,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3369,185 +3471,194 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61006000</v>
+      </c>
+      <c r="E47" s="3">
         <v>61055000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61768000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>64701000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>61840000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>62570000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>60076000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>94237000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91197000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>89637000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>84783000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>88221000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89158000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>86345000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>84018000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81136000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>83855000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>83140000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>83195000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82677000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82680000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81203000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81050000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>81707000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E48" s="3">
         <v>975000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>966000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1253000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>965000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1026000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1002000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1057000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1076000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1123000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1628000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1535000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1519000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1521000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1045000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1032000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1040000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1060000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1072000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1067000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1072000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1067000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1065000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3496000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3497000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3502000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3389000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3349000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2544000</v>
       </c>
       <c r="K49" s="3">
         <v>2544000</v>
@@ -3559,22 +3670,22 @@
         <v>2544000</v>
       </c>
       <c r="N49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="O49" s="3">
         <v>2545000</v>
       </c>
       <c r="P49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="Q49" s="3">
         <v>2547000</v>
       </c>
       <c r="R49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="S49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2189000</v>
       </c>
       <c r="T49" s="3">
         <v>2189000</v>
@@ -3583,25 +3694,28 @@
         <v>2189000</v>
       </c>
       <c r="V49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="W49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>2309000</v>
       </c>
       <c r="X49" s="3">
         <v>2309000</v>
       </c>
       <c r="Y49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1219000</v>
       </c>
       <c r="AA49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3677,8 +3791,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3754,31 +3871,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E52" s="3">
         <v>118000</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>36803000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36969000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -3795,8 +3915,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3831,8 +3951,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3908,85 +4031,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97676000</v>
+      </c>
+      <c r="E54" s="3">
         <v>96350000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97150000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>99440000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>133440000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132643000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>129811000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125987000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122750000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121266000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116107000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>119950000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121073000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118374000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>115834000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>112249000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114490000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113369000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>113289000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>112422000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113632000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>110865000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>110243000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>108610000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4014,8 +4143,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4043,8 +4173,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4120,8 +4251,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4197,85 +4331,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24211000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23229000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22429000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22490000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21753000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20853000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20274000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49274000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49140000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48221000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46664000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48503000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48555000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48232000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48055000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47670000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48313000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47936000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47972000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48614000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48542000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48216000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48129000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48185000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4351,85 +4491,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7967000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7970000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7973000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7976000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7996000</v>
       </c>
       <c r="I61" s="3">
         <v>7996000</v>
       </c>
       <c r="J61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="K61" s="3">
         <v>7825000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6635000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6634000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6633000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6631000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6630000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6628000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6453000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6451000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6450000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6448000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6847000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6350000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6349000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6348000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6346000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6347000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4437,76 +4583,79 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>402000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>833000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33132000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33533000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33876000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1355000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>905000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>842000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>331000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1154000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1079000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>997000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>817000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>425000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>660000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>723000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>725000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>782000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1249000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1104000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>833000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>487000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4582,8 +4731,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4659,8 +4811,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4736,85 +4891,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80003000</v>
+      </c>
+      <c r="E66" s="3">
         <v>76235000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>73938000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74261000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106711000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104436000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102992000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95770000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95487000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94280000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91934000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93952000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>94933000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>93898000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>92416000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90937000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90857000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90247000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90012000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89871000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>91513000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89364000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89085000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>88037000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4842,8 +5003,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4919,8 +5081,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4996,8 +5161,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5014,13 +5182,13 @@
         <v>1970000</v>
       </c>
       <c r="H70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="I70" s="3">
         <v>2170000</v>
       </c>
       <c r="J70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="K70" s="3">
         <v>1970000</v>
@@ -5032,13 +5200,13 @@
         <v>1970000</v>
       </c>
       <c r="N70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="O70" s="3">
         <v>2248000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>1930000</v>
       </c>
       <c r="Q70" s="3">
         <v>1930000</v>
@@ -5047,7 +5215,7 @@
         <v>1930000</v>
       </c>
       <c r="S70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="T70" s="3">
         <v>2303000</v>
@@ -5056,7 +5224,7 @@
         <v>2303000</v>
       </c>
       <c r="V70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="W70" s="3">
         <v>1746000</v>
@@ -5073,8 +5241,11 @@
       <c r="AA70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5150,85 +5321,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51490000</v>
+      </c>
+      <c r="E72" s="3">
         <v>52412000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53688000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53294000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52736000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52464000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>51107000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52767000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50336000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49380000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48326000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48074000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46527000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45803000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45148000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45708000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46178000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45508000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45031000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>43162000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42125000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41622000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>41208000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>40678000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5304,8 +5481,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5381,8 +5561,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5458,85 +5641,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15703000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18145000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21242000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23209000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24759000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26037000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24649000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28247000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25293000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25016000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22203000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23750000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23088000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22546000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21488000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19382000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21330000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20819000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20974000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20805000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20373000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19755000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19412000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18827000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5612,167 +5801,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-694000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1042000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>630000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>790000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>508000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1595000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2598000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1126000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1224000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>513000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1707000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>889000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>821000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1261000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-585000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>942000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>678000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>977000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1220000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>637000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>550000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>666000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>811000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5800,85 +5998,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E83" s="3">
         <v>216000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>236000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>268000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>247000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>311000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>260000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>186000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>182000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>163000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>155000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>171000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>159000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>160000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>157000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>135000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>128000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>126000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>122000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>125000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>120000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>119000</v>
       </c>
       <c r="Y83" s="3">
         <v>119000</v>
       </c>
       <c r="Z83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="AA83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5954,8 +6156,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6031,8 +6236,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6108,8 +6316,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6185,8 +6396,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6262,85 +6476,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2046000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1673000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>432000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>871000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1329000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1551000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1365000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1319000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1296000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1849000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1027000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1234000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1833000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>714000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1357000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1728000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1464000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>626000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1100000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1866000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>491000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>857000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1251000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6368,85 +6588,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-98000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-130000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-89000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-136000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-140000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-120000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-80000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-66000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-62000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-83000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-70000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-72000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6522,8 +6746,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6599,85 +6826,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1143000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>981000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>221000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>446000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-670000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>513000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-285000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>68000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>428000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-879000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-263000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>737000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-60000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-140000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>337000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-280000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6705,85 +6938,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-236000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-230000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-235000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-241000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-245000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-164000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-168000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-169000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-172000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-159000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-166000</v>
       </c>
       <c r="P96" s="3">
         <v>-166000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-158000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-159000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-160000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-163000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-134000</v>
       </c>
       <c r="W96" s="3">
         <v>-134000</v>
       </c>
       <c r="X96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-122000</v>
       </c>
       <c r="Z96" s="3">
         <v>-122000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6859,8 +7096,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6936,8 +7176,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7013,85 +7256,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-883000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-918000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-842000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>886000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-614000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>248000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-421000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-399000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-612000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>458000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-531000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-788000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-571000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>664000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7167,81 +7416,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-364000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>367000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-83000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>398000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-177000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>209000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-249000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>48000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>52000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-29000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-167000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-73000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>208000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>40000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>47000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,357 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13647000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13208000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12220000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12337000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13011000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12480000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12646000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12451000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10962000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10678000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10403000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9866000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11476000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11085000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11156000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11006000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9486000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10469000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10103000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9770000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9854000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9686000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9634000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9496000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9350000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1731000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1682000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1619000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1612000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1602000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1582000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1545000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1523000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1382000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1386000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1344000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1365000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1382000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1425000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1362000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1364000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1336000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1317000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1296000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1273000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1239000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1200000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1176000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1169000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1157000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11916000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11526000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10601000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10725000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11409000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10898000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11101000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10928000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9580000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9292000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9059000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8501000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10094000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9660000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9794000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9642000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8150000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9152000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8807000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8497000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8615000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8486000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8458000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8327000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8193000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1044,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1112,8 +1125,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1192,129 +1208,135 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>73000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>195000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>750000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>213000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>66000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>74000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>33000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>163000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>39000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>88000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>70000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>80000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E15" s="3">
         <v>90000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>87000</v>
       </c>
       <c r="F15" s="3">
         <v>87000</v>
       </c>
       <c r="G15" s="3">
-        <v>109000</v>
+        <v>87000</v>
       </c>
       <c r="H15" s="3">
         <v>109000</v>
       </c>
       <c r="I15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="J15" s="3">
         <v>105000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>53000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>31000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>29000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>32000</v>
       </c>
       <c r="Q15" s="3">
         <v>32000</v>
@@ -1323,19 +1345,19 @@
         <v>32000</v>
       </c>
       <c r="S15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="T15" s="3">
         <v>36000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22000</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
@@ -1343,8 +1365,8 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1352,8 +1374,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1379,168 +1404,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14067000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14128000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13535000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11540000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11618000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12254000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10849000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9419000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8098000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9150000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9024000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8835000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9245000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9925000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10078000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9386000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10196000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9291000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9206000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8507000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8697000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8715000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8783000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8484000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8092000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-920000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1315000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>797000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1393000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>226000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1797000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3032000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2864000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1528000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1379000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1031000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2231000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1160000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1078000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1620000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-710000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1178000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>897000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1263000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1157000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>971000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>851000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1012000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1258000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1569,8 +1601,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1649,88 +1682,94 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-219000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-726000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1099000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1033000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1661000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>473000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2108000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3292000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3050000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1710000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1542000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1186000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2402000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1319000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1238000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1777000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-575000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1306000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1023000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1385000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1282000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1091000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>970000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1131000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1355000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1809,168 +1848,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-920000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1315000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>797000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1393000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>226000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1797000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3032000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2864000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1528000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1379000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1031000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2231000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1160000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1078000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1620000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-710000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1178000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>897000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1263000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1157000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>971000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>851000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1012000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1258000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-237000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-291000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>151000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>281000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>362000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>626000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>594000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>312000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>273000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>194000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>458000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>229000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>227000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>328000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-170000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>230000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>180000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>257000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>414000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>305000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>272000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>317000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>418000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2049,168 +2097,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-303000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-683000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1024000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>646000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1112000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>206000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1435000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2406000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2270000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1216000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1106000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>837000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1773000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>931000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>851000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1292000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-540000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>948000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>717000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1006000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>743000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>666000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>579000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>695000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>840000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-694000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1042000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>630000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1111000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>183000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1399000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2385000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2244000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1189000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1080000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>801000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1707000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>889000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>821000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1261000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-583000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>911000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>678000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>977000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>714000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>637000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>550000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>666000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>811000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2289,13 +2346,16 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2304,31 +2364,31 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-321000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>325000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>196000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>354000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-63000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>144000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2339,23 +2399,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>31000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>506000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2369,8 +2429,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2449,8 +2512,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2529,8 +2595,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2609,88 +2678,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-694000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1042000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>630000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>790000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>508000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1595000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2598000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1126000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1224000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>513000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1707000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>889000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>821000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1261000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-585000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>942000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>678000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>977000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1220000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>637000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>550000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>666000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>811000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2769,173 +2844,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-694000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1042000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>630000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>790000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>508000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1595000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2598000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1126000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1224000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>513000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1707000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>889000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>821000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1261000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-585000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>942000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>678000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>977000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1220000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>637000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>550000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>666000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>811000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2964,8 +3048,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2994,88 +3079,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>736000</v>
+      </c>
+      <c r="E41" s="3">
         <v>786000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>766000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1130000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>763000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>690000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>656000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>709000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>377000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>370000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>547000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>338000</v>
       </c>
       <c r="O41" s="3">
         <v>338000</v>
       </c>
       <c r="P41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>587000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>599000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>551000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>499000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>460000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>489000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>450000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>617000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>690000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>482000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>442000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>436000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3154,88 +3243,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9165000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9150000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8824000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8874000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8364000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8406000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8146000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7921000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6479000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6609000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6367000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6401000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6472000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6558000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6380000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6201000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6154000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6196000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5953000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5856000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5786000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5922000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5693000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5649000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5597000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3314,8 +3409,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3394,8 +3492,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3474,168 +3575,177 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61829000</v>
+      </c>
+      <c r="E47" s="3">
         <v>61006000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61055000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61768000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>64701000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>61840000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>62570000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>60076000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94237000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>91197000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89637000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>84783000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>88221000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89158000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>86345000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>84018000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81136000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>83855000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>83140000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>83195000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82677000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82680000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81203000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>81050000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>81707000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1008000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>975000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>966000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1253000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>965000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1026000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1002000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1057000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1076000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1100000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1123000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1628000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1519000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1521000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1045000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1032000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1040000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1060000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1072000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1067000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1072000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1067000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1065000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3643,25 +3753,25 @@
         <v>3502000</v>
       </c>
       <c r="E49" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3496000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3497000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3502000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3389000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3349000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2544000</v>
       </c>
       <c r="L49" s="3">
         <v>2544000</v>
@@ -3673,22 +3783,22 @@
         <v>2544000</v>
       </c>
       <c r="O49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="P49" s="3">
         <v>2545000</v>
       </c>
       <c r="Q49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="R49" s="3">
         <v>2547000</v>
       </c>
       <c r="S49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="T49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2189000</v>
       </c>
       <c r="U49" s="3">
         <v>2189000</v>
@@ -3697,25 +3807,28 @@
         <v>2189000</v>
       </c>
       <c r="W49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="X49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>2309000</v>
       </c>
       <c r="Y49" s="3">
         <v>2309000</v>
       </c>
       <c r="Z49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>1219000</v>
       </c>
       <c r="AB49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3794,8 +3907,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3874,34 +3990,37 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E52" s="3">
         <v>492000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>118000</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>36803000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36969000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -3918,8 +4037,8 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3954,8 +4073,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4034,88 +4156,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97957000</v>
+      </c>
+      <c r="E54" s="3">
         <v>97676000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96350000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97150000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>99440000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>133440000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>132643000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>129811000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125987000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>122750000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121266000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116107000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>119950000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121073000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118374000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>115834000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>112249000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>114490000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>113369000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113289000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>112422000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>113632000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>110865000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>110243000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>108610000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4144,8 +4272,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4174,8 +4303,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4254,8 +4384,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4334,88 +4467,94 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24824000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24211000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23229000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22429000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22490000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21753000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20853000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20274000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49274000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49140000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48221000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46664000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48503000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48555000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48232000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48055000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47670000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48313000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47936000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47972000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48614000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48542000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48216000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48129000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>48185000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4494,88 +4633,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7964000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7967000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7970000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7973000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7976000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>7996000</v>
       </c>
       <c r="J61" s="3">
         <v>7996000</v>
       </c>
       <c r="K61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="L61" s="3">
         <v>7825000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6635000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6634000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6633000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6631000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6630000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6628000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6453000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6451000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6450000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6448000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6847000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6350000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6349000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6348000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6346000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6347000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4586,76 +4731,79 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>402000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>833000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33132000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33533000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33876000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1355000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>905000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>842000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>331000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1154000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1079000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>997000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>817000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>425000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>660000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>723000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>725000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>782000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1249000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1104000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>833000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>487000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4734,8 +4882,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4814,8 +4965,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4894,88 +5048,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80482000</v>
+      </c>
+      <c r="E66" s="3">
         <v>80003000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76235000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>73938000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74261000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106711000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104436000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102992000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95770000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95487000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94280000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91934000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>93952000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>94933000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>93898000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>92416000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90937000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90857000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90247000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90012000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89871000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>91513000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89364000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89085000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>88037000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5004,8 +5164,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5084,8 +5245,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5164,8 +5328,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5185,13 +5352,13 @@
         <v>1970000</v>
       </c>
       <c r="I70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="J70" s="3">
         <v>2170000</v>
       </c>
       <c r="K70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="L70" s="3">
         <v>1970000</v>
@@ -5203,13 +5370,13 @@
         <v>1970000</v>
       </c>
       <c r="O70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="P70" s="3">
         <v>2248000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>1930000</v>
       </c>
       <c r="R70" s="3">
         <v>1930000</v>
@@ -5218,7 +5385,7 @@
         <v>1930000</v>
       </c>
       <c r="T70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="U70" s="3">
         <v>2303000</v>
@@ -5227,7 +5394,7 @@
         <v>2303000</v>
       </c>
       <c r="W70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="X70" s="3">
         <v>1746000</v>
@@ -5244,8 +5411,11 @@
       <c r="AB70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5324,88 +5494,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50954000</v>
+      </c>
+      <c r="E72" s="3">
         <v>51490000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52412000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53688000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53294000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52736000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52464000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>51107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52767000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50336000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49380000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48326000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48074000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46527000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45803000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45148000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45708000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46178000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45508000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45031000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>43162000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>42125000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>41622000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>41208000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>40678000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5484,8 +5660,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5564,8 +5743,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5644,88 +5826,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15505000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15703000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18145000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21242000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23209000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24759000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26037000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24649000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28247000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25293000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25016000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22203000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23750000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23088000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22546000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21488000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19382000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21330000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20819000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20974000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20805000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20373000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19755000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19412000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18827000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5804,173 +5992,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-694000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1042000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>630000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>790000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>508000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1595000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2598000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1126000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1224000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>513000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1707000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>889000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>821000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1261000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-585000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>942000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>678000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>977000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1220000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>637000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>550000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>666000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>811000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5999,88 +6196,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E83" s="3">
         <v>194000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>216000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>236000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>268000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>247000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>311000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>260000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>186000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>182000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>163000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>155000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>171000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>159000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>160000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>157000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>135000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>128000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>126000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>122000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>125000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>120000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>119000</v>
       </c>
       <c r="Z83" s="3">
         <v>119000</v>
       </c>
       <c r="AA83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="AB83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6159,8 +6360,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6239,8 +6443,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6319,8 +6526,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6399,8 +6609,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6479,88 +6692,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>970000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2046000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1673000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>432000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>871000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1329000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1551000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1365000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1319000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1296000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1849000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1027000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1234000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1833000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1348000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>714000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1357000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1728000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1464000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>626000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1100000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1866000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>491000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>857000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1251000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6589,88 +6808,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-124000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-98000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-130000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-89000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-136000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-101000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-140000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-120000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-93000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-80000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-82000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-62000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-83000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-70000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-72000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6749,8 +6972,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6829,88 +7055,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-447000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1143000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>981000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>221000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>446000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-670000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>513000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-285000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>68000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>428000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-879000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-263000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>737000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-60000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-140000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>337000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-280000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6939,88 +7171,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-232000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-236000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-230000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-235000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-241000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-245000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-164000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-168000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-169000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-172000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-159000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-166000</v>
       </c>
       <c r="Q96" s="3">
         <v>-166000</v>
       </c>
       <c r="R96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-158000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-159000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-160000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-163000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-134000</v>
       </c>
       <c r="X96" s="3">
         <v>-134000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-122000</v>
       </c>
       <c r="AA96" s="3">
         <v>-122000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7099,8 +7335,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7179,8 +7418,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7259,88 +7501,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-883000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-918000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-842000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>886000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-614000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>248000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-421000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-399000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-612000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>458000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-531000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-788000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-571000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>664000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7419,84 +7667,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E102" s="3">
         <v>20000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-364000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>367000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>398000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-177000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>209000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-249000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>48000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>52000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-29000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-167000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-73000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>208000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>40000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>6000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>47000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,370 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13786000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13647000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13208000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12220000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12337000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13011000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12480000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12646000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12451000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10962000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10678000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10403000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9866000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11476000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11085000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11156000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11006000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9486000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10469000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10103000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9770000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9854000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9686000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9634000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9496000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9350000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1731000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1682000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1619000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1612000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1602000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1582000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1545000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1523000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1382000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1386000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1344000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1365000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1382000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1425000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1362000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1364000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1336000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1317000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1296000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1273000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1239000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1200000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1176000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1169000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1157000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12042000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11916000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11526000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10601000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10725000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11409000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10898000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11101000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10928000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9580000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9292000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9059000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8501000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10094000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9660000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9794000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9642000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8150000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9152000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8807000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8497000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8615000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8486000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8458000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8327000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8193000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1058,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1211,135 +1228,141 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>73000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>195000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>750000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>213000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>66000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>74000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>33000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>163000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>39000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>88000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>70000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>80000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E15" s="3">
         <v>89000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>90000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>87000</v>
       </c>
       <c r="G15" s="3">
         <v>87000</v>
       </c>
       <c r="H15" s="3">
-        <v>109000</v>
+        <v>87000</v>
       </c>
       <c r="I15" s="3">
         <v>109000</v>
       </c>
       <c r="J15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K15" s="3">
         <v>105000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>31000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>29000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>28000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>32000</v>
       </c>
       <c r="R15" s="3">
         <v>32000</v>
@@ -1348,19 +1371,19 @@
         <v>32000</v>
       </c>
       <c r="T15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="U15" s="3">
         <v>36000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>22000</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
@@ -1368,8 +1391,8 @@
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -1377,8 +1400,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1405,174 +1431,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14192000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14067000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14128000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13535000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11540000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11618000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12254000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10849000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9419000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8098000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9150000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9024000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8835000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9245000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9925000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10078000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9386000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10196000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9291000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9206000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8507000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8697000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8715000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8783000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8484000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8092000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-406000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-420000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-920000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1315000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>797000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1393000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>226000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1797000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3032000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2864000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1528000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1379000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1031000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2231000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1160000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1078000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1620000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-710000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1178000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>897000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1263000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1157000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>971000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>851000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1012000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1258000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1602,8 +1635,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1685,91 +1719,97 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-229000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-219000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-726000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1099000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1033000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1661000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>473000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2108000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3292000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3050000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1710000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1542000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1186000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2402000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1319000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1238000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1777000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-575000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1306000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1023000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1385000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1282000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1091000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>970000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1131000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1355000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,174 +1891,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-406000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-420000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-920000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1315000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>797000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1393000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>226000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1797000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3032000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2864000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1528000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1379000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1031000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2231000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1160000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1078000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1620000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-710000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1178000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>897000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1263000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1157000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>971000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>851000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1012000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1258000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-117000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-237000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-291000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>151000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>281000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>362000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>626000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>594000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>312000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>273000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>194000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>458000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>229000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>227000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>328000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-170000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>230000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>180000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>257000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>414000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>305000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>272000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>317000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>418000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2100,174 +2149,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-303000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-683000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1024000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>646000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1112000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>206000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1435000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2406000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2270000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1216000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1106000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>837000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1773000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>931000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>851000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1292000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-540000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>948000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>717000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1006000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>743000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>666000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>579000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>695000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>840000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-310000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-694000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1042000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>630000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1111000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>183000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1399000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2385000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2244000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1189000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1080000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>801000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>889000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>821000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1261000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-583000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>911000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>678000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>977000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>714000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>637000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>550000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>666000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>811000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2349,16 +2407,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2367,31 +2428,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-321000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>325000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>196000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>354000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-63000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>144000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2402,23 +2463,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>31000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>506000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2432,8 +2493,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2515,8 +2579,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2598,8 +2665,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2681,91 +2751,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-310000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-694000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1042000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>630000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>790000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>508000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1595000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2598000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1126000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1224000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>513000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>889000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>821000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1261000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-585000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>942000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>678000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>977000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1220000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>637000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>550000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>666000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>811000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2847,179 +2923,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-310000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-694000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1042000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>630000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>790000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>508000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1595000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2598000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1126000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1224000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>513000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>889000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>821000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1261000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-585000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>942000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>678000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>977000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1220000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>637000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>550000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>666000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>811000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3049,8 +3134,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3080,91 +3166,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E41" s="3">
         <v>736000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>786000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>766000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1130000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>763000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>690000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>656000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>709000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>377000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>370000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>547000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>338000</v>
       </c>
       <c r="P41" s="3">
         <v>338000</v>
       </c>
       <c r="Q41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="R41" s="3">
         <v>587000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>599000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>551000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>499000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>460000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>489000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>450000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>617000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>690000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>482000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>442000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>436000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3246,91 +3336,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9483000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9165000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9150000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8824000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8874000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8364000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8406000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8146000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7921000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6479000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6609000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6367000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6401000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6472000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6558000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6380000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6201000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6154000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6196000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5953000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5856000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5786000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5922000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5693000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5649000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5597000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3412,8 +3508,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3495,8 +3594,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3578,174 +3680,183 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63475000</v>
+      </c>
+      <c r="E47" s="3">
         <v>61829000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61006000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61055000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>61768000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>64701000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>61840000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>62570000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>60076000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>94237000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>91197000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>89637000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>84783000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>88221000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>89158000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>86345000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>84018000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81136000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>83855000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>83140000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>83195000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82677000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>82680000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>81203000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>81050000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>81707000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1221000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1008000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>975000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>966000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1253000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>965000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1026000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1002000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1057000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1076000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1123000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1628000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1535000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1519000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1521000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1045000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1032000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1040000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1060000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1072000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1067000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1072000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1067000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1065000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3756,25 +3867,25 @@
         <v>3502000</v>
       </c>
       <c r="F49" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="G49" s="3">
         <v>3496000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3497000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3502000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3389000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3349000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2544000</v>
       </c>
       <c r="M49" s="3">
         <v>2544000</v>
@@ -3786,22 +3897,22 @@
         <v>2544000</v>
       </c>
       <c r="P49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="Q49" s="3">
         <v>2545000</v>
       </c>
       <c r="R49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="S49" s="3">
         <v>2547000</v>
       </c>
       <c r="T49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="U49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>2189000</v>
       </c>
       <c r="V49" s="3">
         <v>2189000</v>
@@ -3810,25 +3921,28 @@
         <v>2189000</v>
       </c>
       <c r="X49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>2309000</v>
       </c>
       <c r="Z49" s="3">
         <v>2309000</v>
       </c>
       <c r="AA49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>1219000</v>
       </c>
       <c r="AC49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3910,8 +4024,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3993,37 +4110,40 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>386000</v>
+        <v>345000</v>
       </c>
       <c r="E52" s="3">
+        <v>382000</v>
+      </c>
+      <c r="F52" s="3">
         <v>492000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>118000</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>36803000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36969000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -4040,8 +4160,8 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4076,8 +4196,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4159,91 +4282,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>97957000</v>
+        <v>99631000</v>
       </c>
       <c r="E54" s="3">
+        <v>97989000</v>
+      </c>
+      <c r="F54" s="3">
         <v>97676000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96350000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97150000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>99440000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133440000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>132643000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>129811000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125987000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>122750000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121266000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116107000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119950000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121073000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118374000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>115834000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>112249000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>114490000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113369000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113289000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>112422000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>113632000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>110865000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>110243000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>108610000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4273,8 +4402,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4304,8 +4434,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4387,8 +4518,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4470,91 +4604,97 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24824000</v>
+        <v>24715000</v>
       </c>
       <c r="E59" s="3">
+        <v>24843000</v>
+      </c>
+      <c r="F59" s="3">
         <v>24211000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23229000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22429000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22490000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21753000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20853000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20274000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49274000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49140000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48221000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46664000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48503000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48555000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48232000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48055000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47670000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48313000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47936000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47972000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48614000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48542000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48216000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>48129000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>48185000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4636,96 +4776,102 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8452000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7964000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7967000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7970000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7973000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7976000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>7996000</v>
       </c>
       <c r="K61" s="3">
         <v>7996000</v>
       </c>
       <c r="L61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="M61" s="3">
         <v>7825000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6635000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6634000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6633000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6631000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6630000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6628000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6453000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6451000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6450000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6448000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6847000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6350000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6349000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6348000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6346000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>6347000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4734,76 +4880,79 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>402000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>833000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33132000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33533000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33876000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1355000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>905000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>842000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>331000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1154000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1079000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>997000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>817000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>425000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>660000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>723000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>725000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>782000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1249000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1104000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>833000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>487000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4885,8 +5034,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4968,8 +5120,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5051,91 +5206,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80482000</v>
+        <v>82137000</v>
       </c>
       <c r="E66" s="3">
+        <v>80501000</v>
+      </c>
+      <c r="F66" s="3">
         <v>80003000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76235000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>73938000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74261000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106711000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104436000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102992000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95770000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95487000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>94280000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91934000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>93952000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>94933000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>93898000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>92416000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90937000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90857000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90247000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90012000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89871000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>91513000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89364000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89085000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>88037000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5165,8 +5326,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5248,8 +5410,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5331,8 +5496,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5355,13 +5523,13 @@
         <v>1970000</v>
       </c>
       <c r="J70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="K70" s="3">
         <v>2170000</v>
       </c>
       <c r="L70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="M70" s="3">
         <v>1970000</v>
@@ -5373,13 +5541,13 @@
         <v>1970000</v>
       </c>
       <c r="P70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>2248000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="R70" s="3">
-        <v>1930000</v>
       </c>
       <c r="S70" s="3">
         <v>1930000</v>
@@ -5388,7 +5556,7 @@
         <v>1930000</v>
       </c>
       <c r="U70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="V70" s="3">
         <v>2303000</v>
@@ -5397,7 +5565,7 @@
         <v>2303000</v>
       </c>
       <c r="X70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="Y70" s="3">
         <v>1746000</v>
@@ -5414,8 +5582,11 @@
       <c r="AC70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5497,91 +5668,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50954000</v>
+        <v>50388000</v>
       </c>
       <c r="E72" s="3">
+        <v>50970000</v>
+      </c>
+      <c r="F72" s="3">
         <v>51490000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52412000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53688000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53294000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52736000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52464000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52767000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50336000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49380000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48326000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48074000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46527000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45803000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45148000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45708000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46178000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45508000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>45031000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>43162000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>42125000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>41622000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>41208000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>40678000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5663,8 +5840,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5746,8 +5926,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5829,91 +6012,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15505000</v>
+        <v>15524000</v>
       </c>
       <c r="E76" s="3">
+        <v>15518000</v>
+      </c>
+      <c r="F76" s="3">
         <v>15703000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18145000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21242000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23209000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24759000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26037000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24649000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28247000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25293000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25016000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22203000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23750000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23088000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22546000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21488000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19382000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21330000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20819000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20974000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20805000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20373000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19755000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19412000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18827000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5995,179 +6184,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-310000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-694000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1042000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>630000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>790000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>508000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1595000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2598000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1126000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1224000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>513000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>889000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>821000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1261000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-585000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>942000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>678000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>977000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1220000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>637000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>550000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>666000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>811000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6197,91 +6395,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E83" s="3">
         <v>201000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>194000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>216000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>236000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>268000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>247000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>311000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>260000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>186000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>182000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>163000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>155000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>171000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>159000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>160000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>157000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>135000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>128000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>126000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>122000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>125000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>120000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>119000</v>
       </c>
       <c r="AA83" s="3">
         <v>119000</v>
       </c>
       <c r="AB83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="AC83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6363,8 +6565,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6446,8 +6651,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6529,8 +6737,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6612,8 +6823,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6695,91 +6909,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E89" s="3">
         <v>970000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2046000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1673000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>432000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>871000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1329000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1551000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1365000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1319000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1296000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1849000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1027000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1833000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1348000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>714000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1357000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1728000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1464000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>626000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1100000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1866000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>491000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>857000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1251000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6809,91 +7029,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-68000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-124000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-130000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-89000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-136000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-101000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-140000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-120000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-93000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-80000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-82000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-66000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-62000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-83000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-70000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-72000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6975,8 +7199,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7058,91 +7285,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-796000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-447000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1143000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>981000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>221000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>446000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-670000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>513000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-285000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>68000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>428000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-879000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-263000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>737000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-60000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-140000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>337000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-280000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7172,91 +7405,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-228000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-232000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-236000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-230000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-235000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-241000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-245000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-164000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-168000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-169000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-172000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-159000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-166000</v>
       </c>
       <c r="R96" s="3">
         <v>-166000</v>
       </c>
       <c r="S96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-158000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-159000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-160000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-163000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-134000</v>
       </c>
       <c r="Y96" s="3">
         <v>-134000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-122000</v>
       </c>
       <c r="AB96" s="3">
         <v>-122000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7338,8 +7575,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7421,8 +7661,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7504,91 +7747,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-573000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-883000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-918000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-842000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>886000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-614000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>248000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-421000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-399000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-612000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>458000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-531000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-788000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-571000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>664000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7670,87 +7919,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-364000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>367000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-83000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>398000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-177000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>209000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-249000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>48000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>52000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-29000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-167000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-73000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>208000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>40000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>6000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>47000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13979000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13786000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13647000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13208000</v>
       </c>
-      <c r="G8" s="3">
-        <v>12220000</v>
-      </c>
       <c r="H8" s="3">
-        <v>12337000</v>
+        <v>12219000</v>
       </c>
       <c r="I8" s="3">
+        <v>12336000</v>
+      </c>
+      <c r="J8" s="3">
         <v>13011000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12480000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12646000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12451000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10962000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10678000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10403000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9866000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11476000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11085000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11156000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11006000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9486000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10469000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10103000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9770000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9854000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9686000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9634000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9496000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9350000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1789000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1744000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1731000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1682000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1619000</v>
-      </c>
       <c r="H9" s="3">
-        <v>1612000</v>
+        <v>1618000</v>
       </c>
       <c r="I9" s="3">
+        <v>1608000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1602000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1582000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1545000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1523000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1382000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1386000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1344000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1365000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1382000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1425000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1362000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1364000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1336000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1317000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1296000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1273000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1239000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1200000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1176000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1169000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1157000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12190000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12042000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11916000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11526000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10601000</v>
       </c>
-      <c r="H10" s="3">
-        <v>10725000</v>
-      </c>
       <c r="I10" s="3">
+        <v>10728000</v>
+      </c>
+      <c r="J10" s="3">
         <v>11409000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10898000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11101000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10928000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9580000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9292000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9059000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8501000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10094000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9660000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9794000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9642000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8150000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9152000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8807000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8497000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8615000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8486000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8458000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8327000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8193000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1159,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1231,8 +1248,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,132 +1260,135 @@
         <v>27000</v>
       </c>
       <c r="E14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>73000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>195000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>750000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>213000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>66000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>74000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>33000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>163000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>39000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>88000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>70000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>80000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E15" s="3">
         <v>81000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>89000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>90000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>87000</v>
       </c>
       <c r="H15" s="3">
         <v>87000</v>
       </c>
       <c r="I15" s="3">
-        <v>109000</v>
+        <v>87000</v>
       </c>
       <c r="J15" s="3">
         <v>109000</v>
       </c>
       <c r="K15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="L15" s="3">
         <v>105000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>53000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>31000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>29000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>28000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>32000</v>
       </c>
       <c r="S15" s="3">
         <v>32000</v>
@@ -1374,19 +1397,19 @@
         <v>32000</v>
       </c>
       <c r="U15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="V15" s="3">
         <v>36000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>22000</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>8</v>
@@ -1394,8 +1417,8 @@
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1403,8 +1426,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1432,180 +1458,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15727000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14192000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14067000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14128000</v>
       </c>
-      <c r="G17" s="3">
-        <v>13535000</v>
-      </c>
       <c r="H17" s="3">
-        <v>11540000</v>
+        <v>13530000</v>
       </c>
       <c r="I17" s="3">
+        <v>11535000</v>
+      </c>
+      <c r="J17" s="3">
         <v>11618000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12254000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10849000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9419000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8098000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9150000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9024000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8835000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9245000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9925000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10078000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9386000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10196000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9291000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9206000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8507000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8697000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8715000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8783000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8484000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8092000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1748000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-406000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-420000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-920000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1315000</v>
-      </c>
       <c r="H18" s="3">
-        <v>797000</v>
+        <v>-1311000</v>
       </c>
       <c r="I18" s="3">
+        <v>801000</v>
+      </c>
+      <c r="J18" s="3">
         <v>1393000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>226000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1797000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3032000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2864000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1528000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1379000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2231000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1160000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1078000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1620000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-710000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1178000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>897000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1263000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1157000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>971000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>851000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1012000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1258000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1636,8 +1669,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1722,94 +1756,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1562000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-229000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-219000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-726000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1099000</v>
-      </c>
       <c r="H21" s="3">
-        <v>1033000</v>
+        <v>-1095000</v>
       </c>
       <c r="I21" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="J21" s="3">
         <v>1661000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>473000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2108000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3292000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3050000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1710000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1542000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1186000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2402000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1319000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1238000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1777000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-575000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1306000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1023000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1385000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1282000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1091000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>970000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1131000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1355000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1894,180 +1934,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1748000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-406000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-420000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-920000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1315000</v>
-      </c>
       <c r="H23" s="3">
-        <v>797000</v>
+        <v>-1311000</v>
       </c>
       <c r="I23" s="3">
+        <v>801000</v>
+      </c>
+      <c r="J23" s="3">
         <v>1393000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>226000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1797000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3032000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2864000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1528000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1379000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2231000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1160000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1078000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1620000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-710000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1178000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>897000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1263000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1157000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>971000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>851000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1012000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1258000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-85000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-117000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-237000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-291000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="I24" s="3">
         <v>151000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>281000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>362000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>626000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>594000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>312000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>273000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>194000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>458000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>229000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>227000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>328000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-170000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>230000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>180000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>257000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>414000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>305000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>272000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>317000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>418000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2152,180 +2201,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1375000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-321000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-303000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-683000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1024000</v>
-      </c>
       <c r="H26" s="3">
-        <v>646000</v>
+        <v>-1022000</v>
       </c>
       <c r="I26" s="3">
+        <v>650000</v>
+      </c>
+      <c r="J26" s="3">
         <v>1112000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>206000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1435000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2406000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2270000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1216000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1106000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>837000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1773000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>931000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>851000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1292000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-540000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>948000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>717000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>743000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>666000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>579000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>695000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>840000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1389000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-346000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-310000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-694000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1042000</v>
-      </c>
       <c r="H27" s="3">
-        <v>630000</v>
+        <v>-1040000</v>
       </c>
       <c r="I27" s="3">
+        <v>634000</v>
+      </c>
+      <c r="J27" s="3">
         <v>1111000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>183000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1399000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2385000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2244000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1189000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1080000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>801000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1707000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>889000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>821000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1261000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-583000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>911000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>678000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>977000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>714000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>637000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>550000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>666000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>811000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2410,8 +2468,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2421,8 +2482,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2431,31 +2492,31 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-321000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>325000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>196000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>354000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-63000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>144000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2466,23 +2527,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>31000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>506000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2496,8 +2557,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2582,8 +2646,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2668,8 +2735,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2754,94 +2824,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1389000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-346000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-310000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-694000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1042000</v>
-      </c>
       <c r="H33" s="3">
-        <v>630000</v>
+        <v>-1040000</v>
       </c>
       <c r="I33" s="3">
+        <v>634000</v>
+      </c>
+      <c r="J33" s="3">
         <v>790000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>508000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1595000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2598000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1126000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1224000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>513000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1707000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>889000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>821000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1261000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-585000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>942000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>678000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>977000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1220000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>637000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>550000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>666000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>811000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2926,185 +3002,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1389000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-346000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-310000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-694000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1042000</v>
-      </c>
       <c r="H35" s="3">
-        <v>630000</v>
+        <v>-1040000</v>
       </c>
       <c r="I35" s="3">
+        <v>634000</v>
+      </c>
+      <c r="J35" s="3">
         <v>790000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>508000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1595000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2598000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1126000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1224000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>513000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1707000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>889000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>821000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1261000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-585000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>942000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>678000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>977000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1220000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>637000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>550000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>666000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>811000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3135,8 +3220,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3167,94 +3253,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E41" s="3">
         <v>662000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>736000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>786000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>766000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1130000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>763000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>690000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>656000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>709000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>377000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>370000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>547000</v>
-      </c>
-      <c r="P41" s="3">
-        <v>338000</v>
       </c>
       <c r="Q41" s="3">
         <v>338000</v>
       </c>
       <c r="R41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="S41" s="3">
         <v>587000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>599000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>551000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>499000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>460000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>489000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>450000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>617000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>690000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>482000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>442000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>436000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3339,94 +3429,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9713000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9483000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9165000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9150000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8824000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8874000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8364000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8406000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8146000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7921000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6479000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6609000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6367000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6401000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6472000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6558000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6380000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6201000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6154000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6196000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5953000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5856000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5786000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5922000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5693000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5649000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5597000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3511,8 +3607,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3597,8 +3696,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3683,180 +3785,189 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63668000</v>
+      </c>
+      <c r="E47" s="3">
         <v>63475000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61829000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61006000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>61055000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>61768000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>64701000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>61840000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>62570000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>60076000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>94237000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>91197000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89637000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>84783000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>88221000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>89158000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>86345000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>84018000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81136000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>83855000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>83140000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>83195000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>82677000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82680000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>81203000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>81050000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>81707000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E48" s="3">
         <v>971000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1221000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1008000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>975000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>966000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1253000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>965000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1026000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1002000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1057000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1076000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1123000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1628000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1535000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1519000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1521000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1045000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1032000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1040000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1060000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1072000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1067000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1072000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1067000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1065000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3870,25 +3981,25 @@
         <v>3502000</v>
       </c>
       <c r="G49" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="H49" s="3">
         <v>3496000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3497000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3502000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3389000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3349000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2544000</v>
       </c>
       <c r="N49" s="3">
         <v>2544000</v>
@@ -3900,22 +4011,22 @@
         <v>2544000</v>
       </c>
       <c r="Q49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="R49" s="3">
         <v>2545000</v>
       </c>
       <c r="S49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="T49" s="3">
         <v>2547000</v>
       </c>
       <c r="U49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="V49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2189000</v>
       </c>
       <c r="W49" s="3">
         <v>2189000</v>
@@ -3924,25 +4035,28 @@
         <v>2189000</v>
       </c>
       <c r="Y49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>2309000</v>
       </c>
       <c r="AA49" s="3">
         <v>2309000</v>
       </c>
       <c r="AB49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>1219000</v>
       </c>
       <c r="AD49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4027,8 +4141,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4113,40 +4230,43 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E52" s="3">
         <v>345000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>382000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>492000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>118000</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>36803000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36969000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -4163,8 +4283,8 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -4199,8 +4319,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4285,94 +4408,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100514000</v>
+      </c>
+      <c r="E54" s="3">
         <v>99631000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97989000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97676000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96350000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97150000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>99440000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133440000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132643000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>129811000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125987000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>122750000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121266000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116107000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>119950000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>121073000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>118374000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>115834000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>112249000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>114490000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113369000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>113289000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>112422000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>113632000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>110865000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>110243000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>108610000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4403,8 +4532,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4435,8 +4565,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4521,8 +4652,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4607,94 +4741,100 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25575000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24715000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24843000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24211000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23229000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22429000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22490000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21753000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20853000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20274000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49274000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49140000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48221000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46664000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48503000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48555000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48232000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48055000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47670000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48313000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47936000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>47972000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48614000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48542000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>48216000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>48129000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>48185000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4779,102 +4919,108 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7949000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8452000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7964000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7967000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7970000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7973000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7976000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>7996000</v>
       </c>
       <c r="L61" s="3">
         <v>7996000</v>
       </c>
       <c r="M61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="N61" s="3">
         <v>7825000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6635000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6634000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6633000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6631000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6630000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6628000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6453000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6451000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6450000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6448000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6847000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6350000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6349000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6348000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>6346000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>6347000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4883,76 +5029,79 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>402000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>833000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33132000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33533000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33876000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1355000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>905000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>842000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>331000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1154000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1079000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>997000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>817000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>425000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>660000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>723000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>725000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>782000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1249000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1104000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>833000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>487000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5037,8 +5186,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5123,8 +5275,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5209,94 +5364,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84997000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82137000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>80501000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>80003000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76235000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>73938000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74261000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106711000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104436000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102992000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95770000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>95487000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>94280000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91934000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>93952000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>94933000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>93898000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>92416000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90937000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90857000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90247000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>90012000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89871000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>91513000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89364000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>89085000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>88037000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5327,8 +5488,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5413,8 +5575,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5499,13 +5664,16 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1970000</v>
+        <v>2001000</v>
       </c>
       <c r="E70" s="3">
         <v>1970000</v>
@@ -5526,13 +5694,13 @@
         <v>1970000</v>
       </c>
       <c r="K70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="L70" s="3">
         <v>2170000</v>
       </c>
       <c r="M70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="N70" s="3">
         <v>1970000</v>
@@ -5544,13 +5712,13 @@
         <v>1970000</v>
       </c>
       <c r="Q70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="R70" s="3">
         <v>2248000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1930000</v>
       </c>
       <c r="T70" s="3">
         <v>1930000</v>
@@ -5559,7 +5727,7 @@
         <v>1930000</v>
       </c>
       <c r="V70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="W70" s="3">
         <v>2303000</v>
@@ -5568,7 +5736,7 @@
         <v>2303000</v>
       </c>
       <c r="Y70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="Z70" s="3">
         <v>1746000</v>
@@ -5585,8 +5753,11 @@
       <c r="AD70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5671,94 +5842,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48766000</v>
+      </c>
+      <c r="E72" s="3">
         <v>50388000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50970000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>51490000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52412000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53688000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53294000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52736000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52464000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52767000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50336000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49380000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48326000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48074000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46527000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45803000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45148000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45708000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>46178000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>45508000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>45031000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>43162000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>42125000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>41622000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>41208000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>40678000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5843,8 +6020,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5929,8 +6109,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6015,94 +6198,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13516000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15524000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15518000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15703000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18145000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21242000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23209000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24759000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26037000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24649000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28247000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25293000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25016000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22203000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23750000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23088000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22546000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21488000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19382000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21330000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20819000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20974000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20805000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20373000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19755000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>19412000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18827000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6187,185 +6376,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1389000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-346000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-310000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-694000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1042000</v>
-      </c>
       <c r="H81" s="3">
-        <v>630000</v>
+        <v>-1040000</v>
       </c>
       <c r="I81" s="3">
+        <v>634000</v>
+      </c>
+      <c r="J81" s="3">
         <v>790000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>508000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1595000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2598000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1126000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1224000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>513000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1707000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>889000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>821000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1261000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-585000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>942000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>678000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>977000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1220000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>637000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>550000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>666000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>811000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6396,94 +6594,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E83" s="3">
         <v>177000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>201000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>194000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>216000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>236000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>268000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>247000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>311000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>260000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>186000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>182000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>163000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>155000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>171000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>159000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>160000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>157000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>135000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>128000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>126000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>122000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>125000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>120000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>119000</v>
       </c>
       <c r="AB83" s="3">
         <v>119000</v>
       </c>
       <c r="AC83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="AD83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6568,8 +6770,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6654,8 +6859,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6740,8 +6948,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6826,8 +7037,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6912,94 +7126,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E89" s="3">
         <v>601000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>970000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2046000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1673000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>432000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>871000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1329000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1551000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1365000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1319000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1296000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1849000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1027000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1234000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1833000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1348000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>714000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1357000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1728000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1464000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>626000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1100000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1866000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>491000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>857000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1251000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7030,94 +7250,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-79000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-68000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-124000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-130000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-89000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-136000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-73000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-101000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-140000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-120000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-93000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-80000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-82000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-66000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-62000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-83000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-70000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-72000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7202,8 +7426,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7288,94 +7515,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-253000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-796000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-447000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1143000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>981000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>221000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>446000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-670000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>513000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-285000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>68000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>428000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-879000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-263000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>737000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-60000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-140000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>337000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-280000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7406,94 +7639,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-224000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-228000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-232000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-236000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-230000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-235000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-241000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-245000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-164000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-168000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-169000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-172000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-159000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-166000</v>
       </c>
       <c r="S96" s="3">
         <v>-166000</v>
       </c>
       <c r="T96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-158000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-159000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-160000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-163000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-134000</v>
       </c>
       <c r="Z96" s="3">
         <v>-134000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-122000</v>
       </c>
       <c r="AC96" s="3">
         <v>-122000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7578,8 +7815,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7664,8 +7904,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7750,94 +7993,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-879000</v>
+      </c>
+      <c r="E100" s="3">
         <v>121000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-573000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-883000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-918000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-842000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>886000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-614000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>248000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-421000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-399000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-612000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>458000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-531000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-788000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-571000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>664000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7922,90 +8171,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-74000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-364000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>367000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-83000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>398000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-177000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>209000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-249000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>48000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>52000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-29000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-167000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-73000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>208000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>40000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>6000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>47000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-57000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>ALL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14497000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13979000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13786000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13647000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13208000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12219000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12336000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13011000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12480000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12646000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12451000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10962000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10678000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10403000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9866000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11476000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11085000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11156000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11006000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9486000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10469000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10103000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9770000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9854000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9686000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9634000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9496000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9350000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>9294000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1841000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1789000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1744000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1731000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1682000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1618000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1608000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1602000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1582000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1545000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1523000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1382000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1386000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1344000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1365000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1382000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1425000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1362000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1364000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1336000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1317000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1296000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1273000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1239000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1200000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1176000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1169000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1157000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1138000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12656000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12190000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12042000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11916000</v>
       </c>
-      <c r="G10" s="3">
-        <v>11526000</v>
-      </c>
       <c r="H10" s="3">
+        <v>11525000</v>
+      </c>
+      <c r="I10" s="3">
         <v>10601000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10728000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11409000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10898000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11101000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10928000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9580000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9292000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9059000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8501000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10094000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9660000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9794000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9642000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8150000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>9152000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8807000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8497000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8615000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8486000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8458000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8327000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>8193000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>8156000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1085,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1162,8 +1175,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1251,147 +1267,153 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27000</v>
+        <v>87000</v>
       </c>
       <c r="E14" s="3">
         <v>27000</v>
       </c>
       <c r="F14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>73000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>195000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>750000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>213000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>66000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>74000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>33000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>25000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>163000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>39000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>88000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>70000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>80000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E15" s="3">
         <v>82000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>81000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>89000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>90000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>87000</v>
       </c>
       <c r="I15" s="3">
         <v>87000</v>
       </c>
       <c r="J15" s="3">
-        <v>109000</v>
+        <v>87000</v>
       </c>
       <c r="K15" s="3">
         <v>109000</v>
       </c>
       <c r="L15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="M15" s="3">
         <v>105000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>53000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>31000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>29000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>28000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>32000</v>
       </c>
       <c r="T15" s="3">
         <v>32000</v>
@@ -1400,19 +1422,19 @@
         <v>32000</v>
       </c>
       <c r="V15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="W15" s="3">
         <v>36000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>22000</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>8</v>
@@ -1420,8 +1442,8 @@
       <c r="AB15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
@@ -1429,8 +1451,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1459,186 +1484,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14518000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15727000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14192000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14067000</v>
       </c>
-      <c r="G17" s="3">
-        <v>14128000</v>
-      </c>
       <c r="H17" s="3">
+        <v>14118000</v>
+      </c>
+      <c r="I17" s="3">
         <v>13530000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11535000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11618000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12254000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10849000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9419000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8098000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9150000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9024000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8835000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9245000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9925000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10078000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9386000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10196000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9291000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9206000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8507000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8697000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8715000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8783000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8484000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8092000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8529000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1748000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-406000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-420000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-920000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-910000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1311000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>801000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1393000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>226000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1797000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3032000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2864000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1528000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1379000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1031000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2231000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1160000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1078000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1620000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-710000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1178000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>897000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1263000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1157000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>971000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>851000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1012000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1258000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1670,8 +1702,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1759,97 +1792,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1562000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-229000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-219000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-726000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-716000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1095000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1037000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1661000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>473000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2108000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3292000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3050000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1710000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1542000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1186000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2402000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1319000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1238000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1777000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-575000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1306000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1023000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1385000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1282000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1091000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>970000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1131000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1355000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1937,186 +1976,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1748000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-406000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-420000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-920000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-910000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1311000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>801000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1393000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>226000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1797000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3032000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2864000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1528000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1379000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1031000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2231000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1160000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1078000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1620000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-710000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1178000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>897000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1263000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1157000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>971000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>851000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1012000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1258000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>765000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-373000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-85000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-117000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-237000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-289000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>151000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>281000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>362000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>626000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>594000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>312000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>273000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>194000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>458000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>229000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>227000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>328000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-170000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>230000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>180000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>257000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>414000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>305000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>272000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>317000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>418000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>245000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2204,186 +2252,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1375000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-321000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-303000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-683000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-674000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1022000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>650000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1112000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>206000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1435000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2406000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2270000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1216000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1106000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>837000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1773000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>931000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>851000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1292000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-540000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>948000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>717000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>743000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>666000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>579000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>695000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>840000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>520000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1389000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-346000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-310000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-694000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1040000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>634000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1111000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>183000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1399000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2385000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2244000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1189000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1080000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>801000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1707000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>889000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>821000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1261000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-583000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>911000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>678000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>977000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>714000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>637000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>550000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>666000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>811000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2471,8 +2528,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2485,8 +2545,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2495,31 +2555,31 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-321000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>325000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>196000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3793000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>354000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-63000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>144000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-288000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2530,23 +2590,23 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>31000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>506000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2560,8 +2620,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2649,8 +2712,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2738,8 +2804,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2827,97 +2896,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1389000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-346000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-310000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-694000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1040000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>634000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>790000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>508000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1595000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1408000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2598000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1126000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1224000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>513000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1707000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>889000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>821000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1261000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-585000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>942000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>678000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>977000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1220000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>637000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>550000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>666000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>811000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3005,191 +3080,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1389000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-346000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-310000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-694000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1040000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>634000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>790000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>508000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1595000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1408000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2598000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1126000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1224000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>513000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1707000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>889000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>821000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1261000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-585000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>942000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>678000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>977000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1220000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>637000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>550000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>666000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>811000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3221,8 +3305,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3254,97 +3339,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>860000</v>
+      </c>
+      <c r="E41" s="3">
         <v>699000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>662000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>736000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>786000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>766000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1130000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>763000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>690000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>656000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>709000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>377000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>370000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>547000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>338000</v>
       </c>
       <c r="R41" s="3">
         <v>338000</v>
       </c>
       <c r="S41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="T41" s="3">
         <v>587000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>599000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>551000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>499000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>460000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>489000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>450000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>617000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>690000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>482000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>442000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>436000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3432,97 +3521,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10102000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9713000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9483000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9165000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9150000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8824000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8874000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8364000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8406000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8146000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7921000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6479000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6609000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6367000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6401000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6472000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6558000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6380000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6201000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6154000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6196000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5953000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5856000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5786000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5922000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5693000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5649000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5597000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>5799000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3610,8 +3705,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3699,8 +3797,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3788,186 +3889,195 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63359000</v>
+      </c>
+      <c r="E47" s="3">
         <v>63668000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>63475000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61829000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>61006000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>61055000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>61768000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>64701000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61840000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62570000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>60076000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94237000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>91197000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89637000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>84783000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>88221000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>89158000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>86345000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>84018000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81136000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>83855000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>83140000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>83195000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82677000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>82680000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>81203000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>81050000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>81707000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>81038000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E48" s="3">
         <v>945000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>971000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1221000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1008000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>975000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>966000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1253000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>965000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1026000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1002000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1057000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1076000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1123000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1628000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1535000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1519000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1521000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1045000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1032000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1040000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1060000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1072000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1067000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1072000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1067000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1065000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1013000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3984,25 +4094,25 @@
         <v>3502000</v>
       </c>
       <c r="H49" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="I49" s="3">
         <v>3496000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3497000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3502000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3389000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3349000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3350000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2544000</v>
       </c>
       <c r="O49" s="3">
         <v>2544000</v>
@@ -4014,22 +4124,22 @@
         <v>2544000</v>
       </c>
       <c r="R49" s="3">
-        <v>2545000</v>
+        <v>2544000</v>
       </c>
       <c r="S49" s="3">
         <v>2545000</v>
       </c>
       <c r="T49" s="3">
-        <v>2547000</v>
+        <v>2545000</v>
       </c>
       <c r="U49" s="3">
         <v>2547000</v>
       </c>
       <c r="V49" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="W49" s="3">
         <v>2530000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>2189000</v>
       </c>
       <c r="X49" s="3">
         <v>2189000</v>
@@ -4038,25 +4148,28 @@
         <v>2189000</v>
       </c>
       <c r="Z49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2181000</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>2309000</v>
       </c>
       <c r="AB49" s="3">
         <v>2309000</v>
       </c>
       <c r="AC49" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="AD49" s="3">
         <v>2295000</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>1219000</v>
       </c>
       <c r="AE49" s="3">
         <v>1219000</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>1219000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4144,8 +4257,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4233,43 +4349,46 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>816000</v>
+      </c>
+      <c r="E52" s="3">
         <v>480000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>345000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>382000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>492000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>118000</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>36803000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36969000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36829000</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -4286,8 +4405,8 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -4322,8 +4441,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4411,97 +4533,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101176000</v>
+      </c>
+      <c r="E54" s="3">
         <v>100514000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>99631000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97989000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97676000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96350000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97150000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>99440000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133440000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132643000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>129811000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>125987000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>122750000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121266000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116107000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>119950000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>121073000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>118374000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>115834000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>112249000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>114490000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>113369000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>113289000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>112422000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>113632000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>110865000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>110243000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>108610000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>108537000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4533,8 +4661,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4566,8 +4695,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4655,8 +4785,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4744,97 +4877,103 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26711000</v>
+      </c>
+      <c r="E59" s="3">
         <v>25575000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24715000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24843000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24211000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23229000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22429000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22490000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21753000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20853000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20274000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49274000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49140000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48221000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46664000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48503000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48555000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48232000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48055000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47670000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48313000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>47936000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>47972000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48614000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>48542000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>48216000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>48129000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>48185000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>48745000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4922,97 +5061,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7946000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7949000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8452000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7964000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7967000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7970000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7973000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7976000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7980000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>7996000</v>
       </c>
       <c r="M61" s="3">
         <v>7996000</v>
       </c>
       <c r="N61" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="O61" s="3">
         <v>7825000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6635000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6634000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6633000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6631000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6630000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6628000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6453000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6451000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6450000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6448000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6847000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6350000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6349000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>6348000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>6346000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>6347000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5110000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5022,8 +5167,8 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -5032,76 +5177,79 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>402000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>833000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33132000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33533000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33876000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1355000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>905000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>842000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>331000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1154000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1079000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>997000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>817000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>425000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>660000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>723000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>725000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>782000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1249000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1104000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>833000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>487000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>935000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5189,8 +5337,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5278,8 +5429,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5367,97 +5521,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86583000</v>
+      </c>
+      <c r="E66" s="3">
         <v>84997000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82137000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>80501000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>80003000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76235000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>73938000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74261000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106711000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104436000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102992000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>95770000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>95487000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>94280000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91934000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>93952000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>94933000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>93898000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>92416000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90937000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90857000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>90247000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>90012000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89871000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>91513000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>89364000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>89085000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>88037000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>87603000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5489,8 +5649,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5578,8 +5739,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5667,8 +5831,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5676,7 +5843,7 @@
         <v>2001000</v>
       </c>
       <c r="E70" s="3">
-        <v>1970000</v>
+        <v>2001000</v>
       </c>
       <c r="F70" s="3">
         <v>1970000</v>
@@ -5697,13 +5864,13 @@
         <v>1970000</v>
       </c>
       <c r="L70" s="3">
-        <v>2170000</v>
+        <v>1970000</v>
       </c>
       <c r="M70" s="3">
         <v>2170000</v>
       </c>
       <c r="N70" s="3">
-        <v>1970000</v>
+        <v>2170000</v>
       </c>
       <c r="O70" s="3">
         <v>1970000</v>
@@ -5715,13 +5882,13 @@
         <v>1970000</v>
       </c>
       <c r="R70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="S70" s="3">
         <v>2248000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3052000</v>
-      </c>
-      <c r="T70" s="3">
-        <v>1930000</v>
       </c>
       <c r="U70" s="3">
         <v>1930000</v>
@@ -5730,7 +5897,7 @@
         <v>1930000</v>
       </c>
       <c r="W70" s="3">
-        <v>2303000</v>
+        <v>1930000</v>
       </c>
       <c r="X70" s="3">
         <v>2303000</v>
@@ -5739,7 +5906,7 @@
         <v>2303000</v>
       </c>
       <c r="Z70" s="3">
-        <v>1746000</v>
+        <v>2303000</v>
       </c>
       <c r="AA70" s="3">
         <v>1746000</v>
@@ -5756,8 +5923,11 @@
       <c r="AE70" s="3">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>1746000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5845,97 +6015,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48491000</v>
+      </c>
+      <c r="E72" s="3">
         <v>48766000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50388000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50970000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>51490000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52412000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53688000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53294000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52736000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52464000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52767000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50336000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49380000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48326000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48074000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46527000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45803000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45148000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45708000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>46178000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>45508000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>45031000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>43162000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>42125000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>41622000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>41208000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>40678000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>39990000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6023,8 +6199,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6112,8 +6291,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6201,97 +6383,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12592000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13516000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15524000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15518000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15703000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18145000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21242000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23209000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24759000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26037000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24649000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28247000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25293000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25016000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22203000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23750000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23088000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22546000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21488000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19382000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21330000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20819000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20974000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20805000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20373000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>19755000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>19412000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>18827000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>19188000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6379,191 +6567,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1389000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-346000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-310000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-694000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1040000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>634000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>790000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>508000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1595000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1408000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2598000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1126000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1224000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>513000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1707000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>889000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>821000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1261000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-585000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>942000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>678000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>977000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1220000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>637000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>550000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>666000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>811000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6595,97 +6792,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E83" s="3">
         <v>186000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>177000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>201000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>194000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>216000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>236000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>268000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>247000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>311000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>260000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>186000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>182000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>163000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>155000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>171000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>159000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>160000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>157000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>135000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>128000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>126000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>122000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>125000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>120000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>119000</v>
       </c>
       <c r="AC83" s="3">
         <v>119000</v>
       </c>
       <c r="AD83" s="3">
-        <v>97000</v>
+        <v>119000</v>
       </c>
       <c r="AE83" s="3">
         <v>97000</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6773,8 +6974,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6862,8 +7066,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6951,8 +7158,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7040,8 +7250,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7129,97 +7342,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1169000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>601000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>970000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2046000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1673000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>432000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>871000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1329000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1551000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1365000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1319000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1296000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1849000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1027000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1234000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1833000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1348000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>714000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1357000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1728000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1464000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>626000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1100000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1866000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>491000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>857000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1251000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1384000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7251,97 +7470,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-68000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-124000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-130000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-89000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-136000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-73000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-140000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-120000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-93000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-80000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-82000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-67000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-62000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-83000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-70000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-72000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-74000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7429,8 +7652,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7518,97 +7744,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-845000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-253000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-796000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-447000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1143000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>981000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>221000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>446000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-670000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>513000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2198000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-285000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>68000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>428000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2093000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-879000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-263000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>737000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1145000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1251000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-140000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>337000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-280000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1868000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-834000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7640,97 +7872,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-235000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-224000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-228000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-232000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-236000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-230000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-235000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-241000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-245000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-164000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-168000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-169000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-172000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-159000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-166000</v>
       </c>
       <c r="T96" s="3">
         <v>-166000</v>
       </c>
       <c r="U96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-158000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-159000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-160000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-163000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-132000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-134000</v>
       </c>
       <c r="AA96" s="3">
         <v>-134000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-135000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-122000</v>
       </c>
       <c r="AD96" s="3">
         <v>-122000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-124000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7818,8 +8054,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7907,8 +8146,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7996,97 +8238,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-879000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>121000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-573000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-883000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-918000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1743000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-842000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1480000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>886000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1188000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-614000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>248000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-421000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-399000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2055000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-612000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1365000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>458000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1033000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-531000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-788000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-571000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>664000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-607000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8174,93 +8422,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E102" s="3">
         <v>37000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-74000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-364000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>367000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-83000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>398000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-177000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>209000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-249000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>48000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>52000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-29000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-167000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-73000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>208000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>40000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>6000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>47000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-57000</v>
       </c>
     </row>
